--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -77,10 +92,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Thursday, 12 June, 2025 9:29 AM</t>
+    <t>Thursday, 12 June, 2025 9:45 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -760,53 +772,86 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>21</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>14.48</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>24</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>25</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>23</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>24</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>25</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>110.48</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>27</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>28</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>29</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -825,10 +870,15 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
     <t>0:5</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -62,27 +77,39 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BRONCHOPRO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
     <t>96.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -92,7 +119,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 9:45 AM</t>
+    <t>Thursday, 12 June, 2025 9:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -805,53 +832,152 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>26</v>
       </c>
-      <c t="s" r="Q9" s="12">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>16</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>110.48</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>27</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>28</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>29</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>30</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>23</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>33</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>202.47999999999999</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>36</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>37</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>38</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -875,10 +1001,25 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -89,6 +89,27 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -119,7 +140,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 9:49 AM</t>
+    <t>Thursday, 12 June, 2025 10:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -859,7 +880,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -869,14 +890,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -885,14 +906,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -902,11 +923,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -918,20 +939,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -942,42 +963,108 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>202.47999999999999</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
-        <v>36</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
-        <v>37</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
-        <v>38</v>
-      </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>23</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>40</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>41</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>266.48000000000002</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>43</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>44</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>45</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1016,10 +1103,20 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>ESTOHALT 40MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -140,7 +149,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 10:42 AM</t>
+    <t>Thursday, 12 June, 2025 10:51 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -880,7 +889,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -890,11 +899,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -906,14 +915,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -963,7 +972,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -979,7 +988,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -996,7 +1005,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1012,59 +1021,92 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>266.48000000000002</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>23</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
         <v>43</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>44</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>45</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>347.48000000000002</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>46</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>47</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>48</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1113,10 +1155,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
     <t>ESTOHALT 40MG 14 CAPS.</t>
   </si>
   <si>
@@ -119,6 +128,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -128,6 +146,12 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -149,7 +173,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 10:51 AM</t>
+    <t>Thursday, 12 June, 2025 10:52 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -889,7 +913,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -899,14 +923,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -922,7 +946,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -932,11 +956,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -948,14 +972,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1005,7 +1029,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1021,7 +1045,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1038,7 +1062,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1054,59 +1078,158 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>45</v>
       </c>
-      <c t="s" r="Q15" s="12">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>27</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>34</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>48</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>347.48000000000002</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>46</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
-        <v>47</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
-        <v>48</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>50</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>23</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>51</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>52</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>476.38</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>54</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>55</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>56</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1160,10 +1283,25 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -173,7 +185,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 10:52 AM</t>
+    <t>Thursday, 12 June, 2025 10:54 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -927,10 +939,10 @@
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -939,14 +951,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -956,14 +968,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -972,14 +984,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1012,7 +1024,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1022,11 +1034,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1038,14 +1050,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1055,14 +1067,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1071,14 +1083,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1088,11 +1100,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1104,14 +1116,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1121,11 +1133,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1137,14 +1149,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1154,14 +1166,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1170,20 +1182,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1198,38 +1210,71 @@
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>476.38</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>54</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>23</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
         <v>55</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>56</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>562.38</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>58</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>59</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>60</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1298,10 +1343,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -185,7 +185,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 10:54 AM</t>
+    <t>Thursday, 12 June, 2025 11:01 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -131,6 +131,18 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -182,10 +194,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 12 June, 2025 11:01 AM</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 12 June, 2025 11:04 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1057,7 +1069,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1074,7 +1086,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1083,14 +1095,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1100,14 +1112,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1116,14 +1128,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1133,11 +1145,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1149,14 +1161,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1166,11 +1178,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1182,14 +1194,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1199,14 +1211,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1215,20 +1227,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1243,38 +1255,71 @@
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>562.38</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>58</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>23</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
         <v>59</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>60</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>588.38</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>62</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>63</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>64</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1348,10 +1393,15 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BRONCHOPRO 15MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -197,7 +209,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 11:04 AM</t>
+    <t>Thursday, 12 June, 2025 11:06 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -921,7 +933,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -984,10 +996,10 @@
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -996,14 +1008,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1013,14 +1025,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1029,14 +1041,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1069,7 +1081,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1079,14 +1091,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1102,7 +1114,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1119,7 +1131,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1128,14 +1140,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1145,14 +1157,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1161,14 +1173,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1178,11 +1190,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1194,14 +1206,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1211,11 +1223,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1227,14 +1239,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1244,14 +1256,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1260,20 +1272,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1284,42 +1296,75 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>588.38</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>62</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>27</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
         <v>63</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>64</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>617.09000000000003</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>66</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>67</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>68</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1398,10 +1443,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -209,7 +218,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 11:06 AM</t>
+    <t>Thursday, 12 June, 2025 11:28 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1180,7 +1189,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1197,7 +1206,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1213,7 +1222,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1246,7 +1255,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1256,11 +1265,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1272,14 +1281,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1289,14 +1298,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1312,59 +1321,92 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>65</v>
       </c>
-      <c t="s" r="Q21" s="12">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>27</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>66</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>67</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>41</v>
       </c>
     </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>617.09000000000003</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>66</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>67</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
-        <v>68</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>639.09000000000003</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>69</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>70</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>71</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1448,10 +1490,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -101,6 +101,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -113,6 +125,33 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>2:9</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>6.3000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -152,9 +191,6 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
@@ -182,6 +218,15 @@
     <t>75.9000</t>
   </si>
   <si>
+    <t>TRIACTIN 2MG/5ML 120ML SYRUP</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -218,7 +263,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 11:28 AM</t>
+    <t>Thursday, 12 June, 2025 11:31 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1008,7 +1053,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1038,10 +1083,10 @@
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1050,14 +1095,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1067,11 +1112,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1083,14 +1128,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1100,14 +1145,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1116,14 +1161,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1133,14 +1178,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1149,14 +1194,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1166,11 +1211,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1182,14 +1227,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1199,11 +1244,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1215,14 +1260,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1232,14 +1277,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1248,7 +1293,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1265,14 +1310,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1281,14 +1326,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1298,14 +1343,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1314,14 +1359,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1331,14 +1376,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1347,66 +1392,198 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>639.09000000000003</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>69</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>70</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
-        <v>71</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>16</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>73</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>75</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>48</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>55</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>12</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>78</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>27</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>81</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>82</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>736.23000000000002</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>84</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>85</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>86</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1495,10 +1672,30 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -137,6 +137,30 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>DIASMECT 3GM 10 SACHETS</t>
   </si>
   <si>
@@ -173,9 +197,6 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -260,10 +281,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 12 June, 2025 11:31 AM</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>Thursday, 12 June, 2025 11:37 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1152,7 +1176,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1161,14 +1185,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1178,14 +1202,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1201,7 +1225,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1211,14 +1235,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1227,14 +1251,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1244,14 +1268,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1260,14 +1284,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1277,14 +1301,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1293,14 +1317,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1310,11 +1334,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1326,14 +1350,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1343,14 +1367,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1359,14 +1383,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1376,14 +1400,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1392,7 +1416,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1409,11 +1433,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1425,14 +1449,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1442,11 +1466,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1458,14 +1482,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1475,14 +1499,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1491,14 +1515,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1508,14 +1532,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1524,66 +1548,132 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>736.23000000000002</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>84</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>12</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>85</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>87</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>27</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>88</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>89</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>939.23000000000002</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>92</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>93</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>94</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1692,10 +1782,20 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -272,12 +272,21 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">بخاخ ريد الكبير </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -287,7 +296,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 11:37 AM</t>
+    <t>Thursday, 12 June, 2025 11:40 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1621,7 +1630,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1638,42 +1647,75 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>91</v>
       </c>
-    </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>939.23000000000002</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>27</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>88</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>92</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c t="s" r="Q29" s="12">
         <v>94</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1039.23</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>95</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>96</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>97</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1792,10 +1834,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -113,6 +113,21 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -173,9 +188,6 @@
     <t>6.3000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -296,7 +308,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 11:40 AM</t>
+    <t>Thursday, 12 June, 2025 12:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1119,7 +1131,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1128,14 +1140,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1145,11 +1157,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1161,14 +1173,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1178,11 +1190,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1194,14 +1206,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1211,11 +1223,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1227,14 +1239,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1244,14 +1256,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1281,10 +1293,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1293,14 +1305,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1310,14 +1322,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1326,14 +1338,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1343,11 +1355,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1359,14 +1371,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1376,14 +1388,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1392,14 +1404,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1409,14 +1421,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1425,7 +1437,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1442,11 +1454,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1458,14 +1470,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1475,14 +1487,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1491,14 +1503,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1508,14 +1520,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1524,7 +1536,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1541,14 +1553,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1557,14 +1569,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1574,11 +1586,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1590,14 +1602,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1607,14 +1619,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1623,20 +1635,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1663,59 +1675,92 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1039.23</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>95</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>27</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>92</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>96</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>97</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c t="s" r="Q30" s="12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1062.99</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>99</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>100</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>101</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1839,10 +1884,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -233,6 +233,12 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -308,7 +314,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 12:54 PM</t>
+    <t>Thursday, 12 June, 2025 12:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1477,7 +1483,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1487,14 +1493,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1503,14 +1509,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1520,14 +1526,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1536,14 +1542,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1553,14 +1559,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1569,7 +1575,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1586,14 +1592,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1602,14 +1608,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1619,7 +1625,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1642,7 +1648,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1652,14 +1658,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1668,28 +1674,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1701,66 +1707,99 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>97</v>
       </c>
-      <c t="s" r="Q30" s="12">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>27</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>94</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1062.99</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c t="s" r="Q31" s="12">
         <v>100</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1088.73</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
         <v>101</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>102</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>103</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1889,10 +1928,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -314,7 +314,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 12:57 PM</t>
+    <t>Thursday, 12 June, 2025 1:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMRIZOLE 250MG 20 TAB</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -224,6 +233,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
@@ -233,6 +251,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -314,7 +341,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 1:32 PM</t>
+    <t>Thursday, 12 June, 2025 1:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1021,7 +1048,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1031,11 +1058,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>21</v>
@@ -1047,14 +1074,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1064,14 +1091,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1080,14 +1107,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1097,14 +1124,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1113,14 +1140,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1130,14 +1157,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1146,14 +1173,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1163,14 +1190,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1179,14 +1206,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1196,11 +1223,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1212,14 +1239,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1229,11 +1256,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1245,14 +1272,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1262,11 +1289,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1278,14 +1305,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1295,14 +1322,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1311,14 +1338,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1328,14 +1355,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1351,7 +1378,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1361,14 +1388,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1384,7 +1411,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1417,7 +1444,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1434,7 +1461,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1450,7 +1477,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1467,7 +1494,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1483,7 +1510,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1493,11 +1520,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1509,7 +1536,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1526,11 +1553,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1542,14 +1569,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1559,11 +1586,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1575,14 +1602,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1592,14 +1619,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1632,7 +1659,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1648,7 +1675,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1658,11 +1685,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1674,14 +1701,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1691,11 +1718,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1707,7 +1734,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1720,7 +1747,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1731,7 +1758,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1747,59 +1774,158 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>99</v>
       </c>
-      <c t="s" r="Q31" s="12">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>12</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>13</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1088.73</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>102</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>16</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
         <v>103</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>104</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>106</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>30</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>103</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>107</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1159.1199999999999</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>110</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>111</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>112</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1933,10 +2059,25 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -341,7 +341,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 1:37 PM</t>
+    <t>Thursday, 12 June, 2025 3:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -335,13 +335,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>Thursday, 12 June, 2025 3:03 PM</t>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>Thursday, 12 June, 2025 3:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1887,21 +1884,21 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
       <c r="P35" s="13">
-        <v>1159.1199999999999</v>
+        <v>1163.1199999999999</v>
       </c>
       <c r="Q35" s="13"/>
     </row>
     <row r="36" ht="16.5" customHeight="1">
       <c t="s" r="A36" s="14">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -1909,13 +1906,13 @@
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c t="s" r="G36" s="15">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="16"/>
       <c t="s" r="K36" s="17">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -338,7 +338,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 3:26 PM</t>
+    <t>Thursday, 12 June, 2025 3:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -264,6 +264,15 @@
   </si>
   <si>
     <t>25.7400</t>
+  </si>
+  <si>
+    <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
   </si>
   <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
@@ -1639,7 +1648,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1672,7 +1681,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1689,7 +1698,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1705,7 +1714,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1722,7 +1731,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1755,7 +1764,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1771,7 +1780,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1781,11 +1790,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1797,14 +1806,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1814,14 +1823,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1837,21 +1846,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1863,20 +1872,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1884,45 +1893,78 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1163.1199999999999</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>109</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>30</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>106</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>110</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>111</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1253.1199999999999</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>112</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>113</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>114</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2071,10 +2113,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -347,7 +347,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 3:32 PM</t>
+    <t>Thursday, 12 June, 2025 3:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -65,27 +65,30 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
-    <t>2:1</t>
+    <t>2:0</t>
   </si>
   <si>
     <t>87.00</t>
   </si>
   <si>
-    <t>28.7100</t>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 250MG 20 TAB</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>AMRIZOLE 250MG 20 TAB</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -113,9 +116,6 @@
     <t>BRUFEN 200MG 30 TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -176,9 +176,6 @@
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -206,6 +203,12 @@
     <t>70.00</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
     <t>ESTOHALT 40MG 14 CAPS.</t>
   </si>
   <si>
@@ -347,7 +350,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 3:44 PM</t>
+    <t>Thursday, 12 June, 2025 3:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1071,7 +1074,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1080,14 +1083,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1097,14 +1100,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1113,14 +1116,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1130,11 +1133,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1146,14 +1149,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1170,7 +1173,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1318,7 +1321,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1328,11 +1331,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1344,14 +1347,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1361,11 +1364,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>41</v>
@@ -1377,14 +1380,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1394,14 +1397,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1410,14 +1413,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1427,14 +1430,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1443,14 +1446,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1460,11 +1463,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1476,14 +1479,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1493,14 +1496,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1509,14 +1512,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1526,11 +1529,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1542,14 +1545,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1559,14 +1562,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1575,14 +1578,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1592,14 +1595,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1608,14 +1611,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1625,14 +1628,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1641,14 +1644,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1658,14 +1661,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1674,14 +1677,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1691,11 +1694,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1707,14 +1710,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1724,14 +1727,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1740,14 +1743,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1757,14 +1760,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1773,7 +1776,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1790,14 +1793,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1806,14 +1809,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1823,14 +1826,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1839,14 +1842,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1856,14 +1859,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1872,28 +1875,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1905,66 +1908,99 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>110</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>31</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>107</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>111</v>
       </c>
-    </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1253.1199999999999</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>112</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1297.6700000000001</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
         <v>113</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
         <v>114</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>115</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2118,10 +2154,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -350,7 +350,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 3:45 PM</t>
+    <t>Thursday, 12 June, 2025 3:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -218,6 +218,18 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -350,7 +362,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 3:49 PM</t>
+    <t>Thursday, 12 June, 2025 4:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1486,7 +1498,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1496,14 +1508,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1512,7 +1524,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1529,14 +1541,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1545,14 +1557,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1562,14 +1574,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1578,14 +1590,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1595,14 +1607,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1611,14 +1623,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1628,14 +1640,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1644,14 +1656,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1661,11 +1673,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1677,14 +1689,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1694,14 +1706,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1710,14 +1722,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1727,11 +1739,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1743,14 +1755,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1760,14 +1772,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1776,14 +1788,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1793,14 +1805,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1809,7 +1821,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1826,14 +1838,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1842,14 +1854,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1859,11 +1871,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -1875,14 +1887,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1892,14 +1904,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1908,20 +1920,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1948,59 +1960,92 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1297.6700000000001</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>113</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>114</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>31</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>111</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>115</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1305.5899999999999</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>117</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>118</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>119</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2159,10 +2204,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -362,7 +362,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 4:22 PM</t>
+    <t>Thursday, 12 June, 2025 4:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -266,6 +266,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PETRO 30 TAB</t>
   </si>
   <si>
@@ -323,9 +332,6 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -362,7 +368,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 4:36 PM</t>
+    <t>Thursday, 12 June, 2025 4:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1663,7 +1669,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1696,7 +1702,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1706,11 +1712,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -1722,14 +1728,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1739,14 +1745,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1762,7 +1768,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1795,7 +1801,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1812,7 +1818,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1828,7 +1834,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1845,7 +1851,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1878,7 +1884,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1894,7 +1900,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1904,11 +1910,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -1927,7 +1933,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1937,14 +1943,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1953,28 +1959,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1986,66 +1992,99 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>116</v>
       </c>
-    </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1305.5899999999999</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>31</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>113</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>117</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>118</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1328.5899999999999</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
         <v>119</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>120</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>121</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2209,10 +2248,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -248,6 +260,9 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -272,9 +287,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>PETRO 30 TAB</t>
   </si>
   <si>
@@ -365,10 +377,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>Thursday, 12 June, 2025 4:39 PM</t>
+    <t>Thursday, 12 June, 2025 4:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1339,7 +1348,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1349,11 +1358,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1365,14 +1374,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1389,7 +1398,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1419,10 +1428,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1431,14 +1440,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1448,11 +1457,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>25</v>
@@ -1464,14 +1473,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1481,14 +1490,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1497,14 +1506,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1521,7 +1530,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1537,7 +1546,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1547,14 +1556,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1563,7 +1572,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1580,14 +1589,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1596,14 +1605,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1613,14 +1622,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1629,7 +1638,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1646,11 +1655,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1662,14 +1671,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1679,11 +1688,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1695,14 +1704,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1712,14 +1721,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1728,14 +1737,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1745,11 +1754,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -1761,14 +1770,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1778,14 +1787,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1794,14 +1803,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1811,14 +1820,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1827,7 +1836,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1844,14 +1853,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1860,7 +1869,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1877,11 +1886,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1893,14 +1902,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1910,11 +1919,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -1926,14 +1935,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1943,14 +1952,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1966,7 +1975,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1980,10 +1989,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1992,31 +2001,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2025,66 +2034,132 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>116</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>16</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>117</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>118</v>
       </c>
-    </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1328.5899999999999</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>119</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>120</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>31</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>117</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>121</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1375.5899999999999</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>122</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>123</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>124</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2253,10 +2328,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -377,7 +377,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 4:53 PM</t>
+    <t>Thursday, 12 June, 2025 4:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -173,6 +173,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -377,7 +386,16 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 4:54 PM</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 12 June, 2025 5:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1348,7 +1366,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1358,11 +1376,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1374,14 +1392,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1414,7 +1432,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1424,14 +1442,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1440,14 +1458,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1457,14 +1475,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1490,11 +1508,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>25</v>
@@ -1506,14 +1524,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1523,14 +1541,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1546,7 +1564,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1556,14 +1574,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1572,14 +1590,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1596,7 +1614,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1629,7 +1647,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1645,7 +1663,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1655,14 +1673,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1671,14 +1689,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1688,14 +1706,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1711,7 +1729,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1728,7 +1746,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1744,7 +1762,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1758,10 +1776,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1770,14 +1788,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1787,11 +1805,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -1810,7 +1828,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1820,11 +1838,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -1836,14 +1854,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1853,14 +1871,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1876,7 +1894,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1909,7 +1927,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1926,7 +1944,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1942,7 +1960,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1959,7 +1977,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1989,10 +2007,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2001,14 +2019,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2018,11 +2036,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2034,14 +2052,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2051,14 +2069,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2074,21 +2092,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2100,20 +2118,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2121,45 +2139,111 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>123</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>31</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>120</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>124</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>47</v>
       </c>
     </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1375.5899999999999</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>122</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>123</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>124</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>125</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>31</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>120</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>126</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1406.5899999999999</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>128</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>129</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>130</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2338,10 +2422,20 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -269,6 +269,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>MIXDERM CREAM 15 GM</t>
   </si>
   <si>
@@ -290,6 +302,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -338,6 +359,15 @@
     <t>75.9000</t>
   </si>
   <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 2MG/5ML 120ML SYRUP</t>
   </si>
   <si>
@@ -395,7 +425,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 5:07 PM</t>
+    <t>Thursday, 12 June, 2025 5:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1696,7 +1726,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1706,11 +1736,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1722,14 +1752,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1739,14 +1769,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1755,14 +1785,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1772,14 +1802,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1788,14 +1818,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1805,14 +1835,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1821,14 +1851,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1838,14 +1868,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1854,14 +1884,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1871,11 +1901,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -1887,14 +1917,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1904,14 +1934,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1920,14 +1950,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1937,14 +1967,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1953,7 +1983,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1970,14 +2000,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1986,7 +2016,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2003,11 +2033,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2019,14 +2049,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2036,11 +2066,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2052,14 +2082,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2069,14 +2099,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2085,14 +2115,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2102,11 +2132,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2118,7 +2148,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2131,18 +2161,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2151,31 +2181,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2184,66 +2214,165 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>129</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>16</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>130</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>131</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>133</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>31</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>130</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>134</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>135</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>31</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>130</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>136</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1406.5899999999999</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>128</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>129</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
-        <v>130</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1672.5899999999999</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>138</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>139</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>140</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2432,10 +2561,25 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -161,6 +161,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>-74.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -383,6 +395,15 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -425,7 +446,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 5:16 PM</t>
+    <t>Thursday, 12 June, 2025 5:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1363,7 +1384,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1373,14 +1394,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1396,7 +1417,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1406,11 +1427,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1422,14 +1443,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1462,7 +1483,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1472,11 +1493,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1488,14 +1509,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1512,7 +1533,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1542,10 +1563,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1554,14 +1575,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1571,11 +1592,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>25</v>
@@ -1587,14 +1608,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1604,14 +1625,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1620,14 +1641,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1644,7 +1665,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1660,7 +1681,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1670,14 +1691,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1686,7 +1707,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1703,14 +1724,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1719,14 +1740,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1743,7 +1764,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1759,7 +1780,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1769,11 +1790,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1785,14 +1806,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1802,14 +1823,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1818,14 +1839,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1835,14 +1856,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1851,7 +1872,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1868,11 +1889,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1884,14 +1905,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1901,14 +1922,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1917,14 +1938,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1934,11 +1955,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -1950,14 +1971,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1967,11 +1988,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -1983,14 +2004,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2000,14 +2021,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2016,14 +2037,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2033,11 +2054,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2049,14 +2070,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2066,14 +2087,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2082,7 +2103,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2099,14 +2120,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2115,14 +2136,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2132,11 +2153,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2148,7 +2169,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2165,14 +2186,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2181,14 +2202,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2198,11 +2219,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2214,7 +2235,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2231,11 +2252,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2247,31 +2268,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2287,13 +2308,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2301,10 +2322,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2313,66 +2334,132 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>140</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>31</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
         <v>137</v>
       </c>
-      <c t="s" r="Q45" s="12">
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>141</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>142</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>31</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>137</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>143</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1672.5899999999999</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>138</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>139</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
-        <v>140</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1629.5899999999999</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>145</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>146</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>147</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2576,10 +2663,20 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>36.00</t>
   </si>
   <si>
-    <t>36.0000</t>
+    <t>72.0000</t>
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
@@ -329,6 +329,18 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PETRO 30 TAB</t>
   </si>
   <si>
@@ -422,9 +434,6 @@
     <t xml:space="preserve">بخاخ ريد الكبير </t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>100.00</t>
   </si>
   <si>
@@ -446,7 +455,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 5:31 PM</t>
+    <t>Thursday, 12 June, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1714,7 +1723,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1731,7 +1740,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1978,21 +1987,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2004,14 +2013,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2021,11 +2030,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2037,14 +2046,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2054,14 +2063,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2070,14 +2079,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2087,11 +2096,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2103,14 +2112,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2120,14 +2129,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2136,7 +2145,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2153,14 +2162,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2169,14 +2178,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2186,11 +2195,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2202,7 +2211,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2219,14 +2228,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2235,14 +2244,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2252,14 +2261,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2268,14 +2277,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2285,14 +2294,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2301,14 +2310,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2318,14 +2327,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2334,20 +2343,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2374,13 +2383,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2388,10 +2397,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2400,7 +2409,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2413,53 +2422,86 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q47" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>145</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>31</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>108</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>146</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1629.5899999999999</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>145</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>146</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
-        <v>147</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>1692.5899999999999</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>148</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>149</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>150</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2673,10 +2715,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DETRONIN 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>4.2500</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -455,7 +464,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 5:32 PM</t>
+    <t>Thursday, 12 June, 2025 5:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1525,7 +1534,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1542,7 +1551,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1558,7 +1567,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1568,14 +1577,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1584,14 +1593,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1601,14 +1610,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1634,11 +1643,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>25</v>
@@ -1650,14 +1659,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1667,14 +1676,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1690,7 +1699,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1700,14 +1709,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1716,14 +1725,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1740,7 +1749,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1756,7 +1765,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1773,7 +1782,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1789,7 +1798,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1799,14 +1808,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1815,14 +1824,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1832,11 +1841,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1848,14 +1857,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1865,14 +1874,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1888,7 +1897,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1905,7 +1914,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1954,7 +1963,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1968,10 +1977,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1980,28 +1989,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2013,24 +2022,24 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2053,7 +2062,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2063,11 +2072,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2079,14 +2088,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2096,14 +2105,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2119,7 +2128,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2152,7 +2161,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2169,7 +2178,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2202,7 +2211,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2218,7 +2227,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2265,10 +2274,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2294,14 +2303,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2317,7 +2326,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2327,14 +2336,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2343,14 +2352,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2383,13 +2392,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2416,13 +2425,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2430,10 +2439,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2442,7 +2451,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2455,53 +2464,86 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>148</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>31</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>111</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>149</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>1692.5899999999999</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>148</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>149</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
-        <v>150</v>
-      </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1696.8399999999999</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>151</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>152</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>153</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2720,10 +2762,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -464,7 +464,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 5:42 PM</t>
+    <t>Thursday, 12 June, 2025 6:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -290,6 +302,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -314,6 +335,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
@@ -344,9 +374,6 @@
     <t>7:2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>27.0000</t>
   </si>
   <si>
@@ -359,6 +386,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -464,7 +500,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 6:03 PM</t>
+    <t>Thursday, 12 June, 2025 6:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1303,13 +1339,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1320,7 +1356,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1329,14 +1365,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1346,14 +1382,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1402,7 +1438,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1412,14 +1448,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1435,7 +1471,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1445,14 +1481,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>57</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1468,7 +1504,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1478,11 +1514,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1494,14 +1530,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1534,7 +1570,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1544,14 +1580,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1560,14 +1596,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1577,14 +1613,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1593,14 +1629,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1617,7 +1653,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1647,10 +1683,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1659,14 +1695,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1676,11 +1712,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1692,14 +1728,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1709,14 +1745,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1725,14 +1761,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1749,7 +1785,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1765,7 +1801,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1775,14 +1811,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1791,14 +1827,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1808,14 +1844,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1824,14 +1860,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1848,7 +1884,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1864,7 +1900,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1874,11 +1910,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1890,14 +1926,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1907,14 +1943,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1923,7 +1959,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1940,11 +1976,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1956,14 +1992,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1973,14 +2009,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1989,14 +2025,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2006,14 +2042,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2022,31 +2058,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2055,14 +2091,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2072,14 +2108,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2088,14 +2124,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2105,11 +2141,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2121,31 +2157,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2154,14 +2190,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2171,14 +2207,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2187,7 +2223,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2204,14 +2240,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2220,14 +2256,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2237,14 +2273,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2260,7 +2296,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2307,10 +2343,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2319,14 +2355,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2336,14 +2372,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2352,14 +2388,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2369,14 +2405,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2385,14 +2421,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2402,11 +2438,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2418,7 +2454,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2431,18 +2467,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2451,31 +2487,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2484,66 +2520,198 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>152</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>12</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>13</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>153</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>155</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>16</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>38</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>156</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>158</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>31</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>38</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>159</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>160</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>31</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>38</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>161</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1696.8399999999999</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>151</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>152</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>153</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2099.7399999999998</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>163</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>164</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>165</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2767,10 +2935,30 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -500,7 +500,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 6:11 PM</t>
+    <t>Thursday, 12 June, 2025 6:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CERELAC رز بدون لبن</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -386,6 +395,18 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>PRONTO PLUS 20 TAB.</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>RX MASSAGE GEL 50 GM</t>
   </si>
   <si>
@@ -500,7 +521,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 6:12 PM</t>
+    <t>Thursday, 12 June, 2025 6:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1438,21 +1459,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1464,14 +1485,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1488,7 +1509,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1497,14 +1518,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1514,14 +1535,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1530,14 +1551,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1570,7 +1591,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1580,11 +1601,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1596,14 +1617,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1620,7 +1641,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1636,7 +1657,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1653,7 +1674,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1669,7 +1690,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1679,14 +1700,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1695,14 +1716,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1712,14 +1733,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1745,11 +1766,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -1761,14 +1782,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1778,14 +1799,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1801,7 +1822,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1811,14 +1832,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1827,14 +1848,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1851,7 +1872,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1867,7 +1888,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1884,7 +1905,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1900,7 +1921,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1917,7 +1938,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1933,7 +1954,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1943,11 +1964,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1959,14 +1980,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1976,11 +1997,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1992,14 +2013,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2009,14 +2030,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2049,7 +2070,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2065,7 +2086,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2131,7 +2152,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2145,10 +2166,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2157,28 +2178,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2197,17 +2218,17 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2230,7 +2251,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2247,7 +2268,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2263,7 +2284,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2273,14 +2294,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2289,7 +2310,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2306,11 +2327,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2322,14 +2343,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2339,11 +2360,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2355,14 +2376,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2372,11 +2393,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2388,7 +2409,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2405,11 +2426,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2421,7 +2442,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2438,11 +2459,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2454,14 +2475,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2471,11 +2492,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2487,14 +2508,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2504,11 +2525,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2520,14 +2541,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2537,14 +2558,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2560,7 +2581,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2574,10 +2595,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2586,28 +2607,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2619,31 +2640,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2652,66 +2673,165 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>162</v>
       </c>
-      <c t="s" r="Q53" s="12">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>16</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>38</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>163</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>165</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>31</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>38</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>166</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>167</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>31</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>38</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>168</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2099.7399999999998</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>163</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>164</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
-        <v>165</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2209.7399999999998</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>170</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>171</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>172</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2955,10 +3075,25 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -521,7 +521,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 6:19 PM</t>
+    <t>Thursday, 12 June, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -284,13 +284,10 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>7.9200</t>
+    <t>11.7600</t>
   </si>
   <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
@@ -521,7 +518,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 6:35 PM</t>
+    <t>Thursday, 12 June, 2025 6:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1855,7 +1852,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1865,14 +1862,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1881,7 +1878,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1898,11 +1895,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -1914,7 +1911,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1931,11 +1928,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1947,7 +1944,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1964,11 +1961,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1980,14 +1977,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1997,11 +1994,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2013,7 +2010,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2030,11 +2027,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2046,7 +2043,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2063,11 +2060,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2079,7 +2076,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2096,11 +2093,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2112,7 +2109,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2129,11 +2126,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2145,7 +2142,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2162,11 +2159,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2178,7 +2175,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2195,7 +2192,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2211,14 +2208,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2232,7 +2229,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2244,7 +2241,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2261,11 +2258,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2277,7 +2274,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2310,7 +2307,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2327,11 +2324,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2343,7 +2340,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2360,11 +2357,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2376,7 +2373,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2397,7 +2394,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2409,7 +2406,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2426,11 +2423,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2442,7 +2439,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2459,11 +2456,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2475,7 +2472,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2492,11 +2489,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2508,7 +2505,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2525,11 +2522,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2541,7 +2538,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2558,11 +2555,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2574,7 +2571,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2591,7 +2588,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2607,7 +2604,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2624,11 +2621,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2640,7 +2637,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2657,11 +2654,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2673,7 +2670,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2690,11 +2687,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2706,7 +2703,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2723,11 +2720,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2739,7 +2736,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2756,11 +2753,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>54</v>
@@ -2772,7 +2769,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2789,11 +2786,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -2801,13 +2798,13 @@
     </row>
     <row r="57" ht="25.5" customHeight="1">
       <c r="P57" s="13">
-        <v>2209.7399999999998</v>
+        <v>2213.5799999999999</v>
       </c>
       <c r="Q57" s="13"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
       <c t="s" r="A58" s="14">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -2815,13 +2812,13 @@
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c t="s" r="G58" s="15">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
       <c r="J58" s="16"/>
       <c t="s" r="K58" s="17">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -290,6 +290,24 @@
     <t>11.7600</t>
   </si>
   <si>
+    <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -317,6 +335,15 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -518,7 +545,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 6:36 PM</t>
+    <t>Thursday, 12 June, 2025 6:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1885,7 +1912,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1902,7 +1929,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1918,7 +1945,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1935,7 +1962,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1951,7 +1978,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1968,7 +1995,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1984,7 +2011,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1994,14 +2021,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2010,14 +2037,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2027,11 +2054,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2043,14 +2070,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2060,11 +2087,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2076,14 +2103,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2093,11 +2120,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2109,7 +2136,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2126,11 +2153,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2149,7 +2176,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2166,7 +2193,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2182,7 +2209,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2196,10 +2223,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2208,31 +2235,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2241,14 +2268,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2258,14 +2285,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2274,14 +2301,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2291,14 +2318,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2307,31 +2334,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2340,14 +2367,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2357,14 +2384,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2373,14 +2400,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2390,14 +2417,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2406,7 +2433,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2423,11 +2450,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2439,14 +2466,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2456,11 +2483,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2472,14 +2499,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2489,7 +2516,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2578,7 +2605,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2592,7 +2619,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2604,14 +2631,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2621,11 +2648,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2637,14 +2664,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2654,14 +2681,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2670,14 +2697,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2687,14 +2714,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2703,28 +2730,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2736,31 +2763,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2769,66 +2796,165 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>170</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>16</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>38</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>171</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>173</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>31</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>38</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>174</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>175</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>31</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>38</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>176</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2213.5799999999999</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>169</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
-        <v>170</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
-        <v>171</v>
-      </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2351.3299999999999</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>178</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>179</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>180</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3087,10 +3213,25 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -194,6 +194,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -260,9 +272,6 @@
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -272,6 +281,15 @@
     <t>9:1</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>ESTOHALT 40MG 14 CAPS.</t>
   </si>
   <si>
@@ -362,12 +380,6 @@
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -455,6 +467,12 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -545,7 +563,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 6:40 PM</t>
+    <t>Thursday, 12 June, 2025 6:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1599,7 +1617,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1615,7 +1633,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1625,11 +1643,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1641,14 +1659,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1681,7 +1699,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1691,14 +1709,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1707,14 +1725,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1724,14 +1742,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1740,14 +1758,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1764,7 +1782,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1794,10 +1812,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1806,14 +1824,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1823,11 +1841,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -1839,14 +1857,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1856,14 +1874,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1879,7 +1897,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1896,7 +1914,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1945,7 +1963,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1962,7 +1980,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1978,7 +1996,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1995,7 +2013,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2011,7 +2029,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2028,7 +2046,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2044,7 +2062,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2061,7 +2079,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2077,7 +2095,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2094,7 +2112,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2110,7 +2128,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2120,11 +2138,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2136,7 +2154,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2153,14 +2171,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2169,14 +2187,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2186,14 +2204,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2202,14 +2220,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2219,11 +2237,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2242,7 +2260,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2252,14 +2270,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2268,14 +2286,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2285,11 +2303,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2301,14 +2319,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2318,14 +2336,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2334,31 +2352,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2367,14 +2385,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2384,11 +2402,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2400,31 +2418,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2440,7 +2458,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2457,7 +2475,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2483,11 +2501,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2499,14 +2517,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2516,14 +2534,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2532,7 +2550,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2549,11 +2567,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2565,14 +2583,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2582,14 +2600,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2598,7 +2616,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2615,14 +2633,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2631,7 +2649,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2648,14 +2666,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2664,7 +2682,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2681,11 +2699,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2697,14 +2715,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2714,11 +2732,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2730,14 +2748,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2747,11 +2765,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2780,14 +2798,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2796,14 +2814,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2813,14 +2831,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2829,28 +2847,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2862,31 +2880,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2895,66 +2913,165 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>176</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>16</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>38</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>177</v>
       </c>
-      <c t="s" r="Q59" s="12">
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>179</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>31</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>38</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>180</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>181</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>31</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>38</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>182</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2351.3299999999999</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>178</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
-        <v>179</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
-        <v>180</v>
-      </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2463.1999999999998</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>184</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>185</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>186</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3228,10 +3345,25 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
     <t>CERELAC رز بدون لبن</t>
   </si>
   <si>
@@ -299,6 +308,18 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -338,45 +359,51 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
+    <t>1:4</t>
+  </si>
+  <si>
     <t>60.00</t>
   </si>
   <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LUCIDRIL 500MG 20 F.C TAB</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -554,16 +581,19 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 12 June, 2025 6:45 PM</t>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 12 June, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1501,24 +1531,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1534,21 +1564,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1560,14 +1590,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1584,7 +1614,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1593,14 +1623,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1610,14 +1640,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1626,14 +1656,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1643,14 +1673,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1659,14 +1689,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1699,7 +1729,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1709,11 +1739,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1725,14 +1755,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1749,7 +1779,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1765,7 +1795,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1782,7 +1812,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1798,7 +1828,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1808,14 +1838,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1824,14 +1854,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1845,10 +1875,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1857,14 +1887,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1874,11 +1904,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1890,14 +1920,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1907,11 +1937,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -1930,7 +1960,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1947,7 +1977,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1963,7 +1993,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1980,7 +2010,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1996,7 +2026,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2006,14 +2036,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2022,14 +2052,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2039,14 +2069,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2055,14 +2085,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2072,14 +2102,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2088,14 +2118,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2105,14 +2135,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2121,14 +2151,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2138,14 +2168,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2154,14 +2184,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2171,14 +2201,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2187,14 +2217,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2204,11 +2234,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2220,7 +2250,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2237,14 +2267,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2253,14 +2283,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2270,14 +2300,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2286,14 +2316,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2303,11 +2333,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2319,14 +2349,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2336,14 +2366,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2352,14 +2382,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2369,11 +2399,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2385,14 +2415,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2402,14 +2432,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2418,31 +2448,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2451,14 +2481,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2468,11 +2498,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2484,31 +2514,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2517,14 +2547,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2534,14 +2564,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2550,7 +2580,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2567,11 +2597,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2583,14 +2613,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2600,14 +2630,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2616,7 +2646,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2633,11 +2663,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2649,14 +2679,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2666,11 +2696,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2682,14 +2712,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2699,11 +2729,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2715,7 +2745,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2732,11 +2762,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2748,14 +2778,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2765,11 +2795,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2781,14 +2811,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2798,14 +2828,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2814,14 +2844,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2831,14 +2861,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2847,14 +2877,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2864,11 +2894,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2880,14 +2910,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2897,11 +2927,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -2913,7 +2943,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2930,11 +2960,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2946,31 +2976,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2979,31 +3009,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3012,14 +3042,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3029,49 +3059,115 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2463.1999999999998</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>184</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>185</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>186</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>188</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>31</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>38</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>189</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>191</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>31</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>38</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>192</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2606.8400000000001</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>194</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>195</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>196</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3360,10 +3456,20 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -563,7 +563,7 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>96.0000</t>
+    <t>192.0000</t>
   </si>
   <si>
     <t xml:space="preserve">بخاخ ريد الكبير </t>
@@ -593,7 +593,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 6:46 PM</t>
+    <t>Thursday, 12 June, 2025 6:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3016,7 +3016,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3033,7 +3033,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3137,7 +3137,7 @@
     </row>
     <row r="65" ht="24.75" customHeight="1">
       <c r="P65" s="13">
-        <v>2606.8400000000001</v>
+        <v>2702.8400000000001</v>
       </c>
       <c r="Q65" s="13"/>
     </row>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -593,7 +593,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 6:47 PM</t>
+    <t>Thursday, 12 June, 2025 6:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -101,12 +101,24 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t xml:space="preserve">ATOMXAPEX 4MG/ML  SYRUP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>BRONCHOPRO 15MG/5ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -122,12 +134,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>142.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -488,12 +506,6 @@
     <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -581,7 +593,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -593,7 +605,16 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 6:53 PM</t>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 12 June, 2025 6:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1372,15 +1393,15 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1392,14 +1413,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1409,14 +1430,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1425,20 +1446,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1449,7 +1470,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1465,7 +1486,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1475,14 +1496,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1491,28 +1512,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1524,14 +1545,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1541,14 +1562,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1557,20 +1578,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1611,10 +1632,10 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1623,31 +1644,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1656,14 +1677,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1673,14 +1694,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1689,14 +1710,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1706,14 +1727,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1722,14 +1743,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1739,14 +1760,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1755,14 +1776,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1772,11 +1793,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1788,14 +1809,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1805,14 +1826,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1821,14 +1842,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1861,7 +1882,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1871,14 +1892,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1887,14 +1908,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1904,14 +1925,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1937,14 +1958,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1953,14 +1974,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1970,11 +1991,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -1986,14 +2007,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2003,14 +2024,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2026,7 +2047,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2036,14 +2057,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>102</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2052,14 +2073,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2069,14 +2090,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2085,14 +2106,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2102,14 +2123,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2125,7 +2146,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2142,7 +2163,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2158,7 +2179,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2175,7 +2196,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2191,7 +2212,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2201,14 +2222,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2217,14 +2238,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2234,14 +2255,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2250,14 +2271,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2274,7 +2295,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2290,7 +2311,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2300,11 +2321,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2316,7 +2337,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2333,14 +2354,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2356,7 +2377,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2366,14 +2387,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2382,14 +2403,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2399,11 +2420,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2415,14 +2436,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2432,14 +2453,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2455,7 +2476,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2488,7 +2509,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2502,10 +2523,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2514,31 +2535,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2547,14 +2568,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2564,11 +2585,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2587,24 +2608,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2613,14 +2634,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2630,14 +2651,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2646,7 +2667,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2663,11 +2684,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2686,7 +2707,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2696,14 +2717,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2712,7 +2733,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2729,11 +2750,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2745,14 +2766,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2762,11 +2783,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2778,14 +2799,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2795,11 +2816,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2811,7 +2832,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2828,11 +2849,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2844,14 +2865,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2861,11 +2882,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2877,14 +2898,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2894,14 +2915,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2910,14 +2931,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2927,14 +2948,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2943,14 +2964,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2960,11 +2981,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2976,14 +2997,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2993,11 +3014,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3009,14 +3030,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3026,14 +3047,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3042,31 +3063,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3075,31 +3096,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>190</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3108,66 +3129,165 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>192</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>31</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>32</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
         <v>193</v>
       </c>
-      <c t="s" r="Q64" s="12">
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>195</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>31</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>32</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>196</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2702.8400000000001</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>194</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>195</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>196</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>198</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>16</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>32</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>199</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>2990.8400000000001</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>201</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>202</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>203</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3466,10 +3586,25 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -614,7 +614,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 6:59 PM</t>
+    <t>Thursday, 12 June, 2025 7:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -317,6 +317,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>ESTOHALT 40MG 14 CAPS.</t>
   </si>
   <si>
@@ -356,6 +365,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
@@ -395,6 +413,15 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t>LUBRISTIRA 15ML EYE DROPS</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>LUCIDRIL 500MG 20 F.C TAB</t>
   </si>
   <si>
@@ -437,10 +464,19 @@
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
   </si>
   <si>
     <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
@@ -557,12 +593,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -587,6 +617,18 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -614,7 +656,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 7:07 PM</t>
+    <t>Thursday, 12 June, 2025 7:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2080,7 +2122,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2097,7 +2139,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2113,7 +2155,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2123,14 +2165,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2139,14 +2181,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2156,14 +2198,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>111</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>51</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2179,7 +2221,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2196,7 +2238,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2212,7 +2254,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2229,7 +2271,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2245,7 +2287,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2262,7 +2304,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2278,7 +2320,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2288,14 +2330,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2304,14 +2346,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2321,14 +2363,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2337,14 +2379,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2361,7 +2403,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2377,7 +2419,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2387,11 +2429,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2403,7 +2445,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2416,11 +2458,11 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2443,7 +2485,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2453,11 +2495,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2469,14 +2511,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2486,11 +2528,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2502,7 +2544,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2519,11 +2561,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2535,14 +2577,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2552,14 +2594,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2575,7 +2617,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2589,10 +2631,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2601,31 +2643,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2634,14 +2676,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2651,14 +2693,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2667,14 +2709,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2684,11 +2726,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2707,7 +2749,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2740,7 +2782,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2754,10 +2796,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2766,24 +2808,24 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2806,7 +2848,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2816,14 +2858,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2832,7 +2874,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2849,14 +2891,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2865,14 +2907,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2882,11 +2924,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2898,7 +2940,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2915,14 +2957,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2931,14 +2973,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2948,14 +2990,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2971,7 +3013,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2981,11 +3023,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2997,14 +3039,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3014,11 +3056,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3030,14 +3072,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3047,11 +3089,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3063,14 +3105,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3080,11 +3122,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3096,14 +3138,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3113,14 +3155,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3129,7 +3171,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3142,15 +3184,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3162,31 +3204,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>194</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3195,31 +3237,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3228,66 +3270,264 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>196</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>53</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>13</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>197</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>199</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>16</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>32</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
         <v>200</v>
       </c>
-      <c t="s" r="Q67" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>2990.8400000000001</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>201</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>202</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
         <v>203</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>32</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>204</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>206</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>31</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>32</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>207</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>209</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>31</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>32</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>210</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>212</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>16</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>32</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>213</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3281.3600000000001</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>215</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>216</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>217</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3601,10 +3841,40 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -92,7 +92,7 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>0:5</t>
+    <t>1:5</t>
   </si>
   <si>
     <t>78.00</t>
@@ -320,10 +320,13 @@
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
+    <t>3:12</t>
+  </si>
+  <si>
     <t>144.00</t>
   </si>
   <si>
-    <t>11.5200</t>
+    <t>23.0400</t>
   </si>
   <si>
     <t>ESTOHALT 40MG 14 CAPS.</t>
@@ -593,6 +596,9 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -656,7 +662,19 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 7:23 PM</t>
+    <t xml:space="preserve">مناديل جيب مبلله </t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 12 June, 2025 7:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2122,7 +2140,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2132,14 +2150,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2148,7 +2166,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2165,11 +2183,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2181,14 +2199,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2202,10 +2220,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2214,7 +2232,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2231,11 +2249,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>51</v>
@@ -2247,7 +2265,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2264,11 +2282,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2280,7 +2298,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2297,11 +2315,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2313,7 +2331,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2330,11 +2348,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2346,7 +2364,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2363,11 +2381,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2379,14 +2397,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2396,11 +2414,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>51</v>
@@ -2412,7 +2430,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2429,11 +2447,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2445,7 +2463,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2462,11 +2480,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2478,7 +2496,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2495,11 +2513,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2511,14 +2529,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2528,11 +2546,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2544,7 +2562,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2561,11 +2579,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2577,7 +2595,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2610,7 +2628,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2627,11 +2645,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2643,7 +2661,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2660,11 +2678,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2676,7 +2694,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2693,11 +2711,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2709,7 +2727,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2730,7 +2748,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2742,7 +2760,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2759,11 +2777,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2775,7 +2793,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2792,7 +2810,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2808,14 +2826,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2829,7 +2847,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2841,7 +2859,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2858,11 +2876,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2874,7 +2892,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2907,14 +2925,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2924,11 +2942,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2940,7 +2958,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2957,11 +2975,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2973,7 +2991,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2994,7 +3012,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3006,7 +3024,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3039,14 +3057,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3056,11 +3074,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3072,7 +3090,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3089,11 +3107,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3105,7 +3123,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3122,11 +3140,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3138,7 +3156,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3155,11 +3173,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3171,7 +3189,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3188,11 +3206,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3204,7 +3222,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3221,7 +3239,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3237,14 +3255,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3254,11 +3272,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3270,7 +3288,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3287,11 +3305,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3303,7 +3321,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3320,11 +3338,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3336,7 +3354,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3353,11 +3371,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3369,14 +3387,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3386,11 +3404,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3402,7 +3420,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3419,14 +3437,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3435,7 +3453,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3452,11 +3470,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3468,7 +3486,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3485,49 +3503,82 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3281.3600000000001</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>215</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>216</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>217</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>218</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>32</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>219</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3298.8800000000001</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>221</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>222</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>223</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3871,10 +3922,15 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -674,7 +674,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 7:31 PM</t>
+    <t>Thursday, 12 June, 2025 7:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -296,6 +296,12 @@
     <t>6.3000</t>
   </si>
   <si>
+    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -344,9 +350,6 @@
     <t>2:3</t>
   </si>
   <si>
-    <t>35.6400</t>
-  </si>
-  <si>
     <t>0:4</t>
   </si>
   <si>
@@ -374,99 +377,102 @@
     <t>22.00</t>
   </si>
   <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LUBRISTIRA 15ML EYE DROPS</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
     <t>22.0000</t>
   </si>
   <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LUBRISTIRA 15ML EYE DROPS</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>LUCIDRIL 500MG 20 F.C TAB</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>152.0000</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -527,6 +533,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:14</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>RX MASSAGE GEL 50 GM</t>
   </si>
   <si>
@@ -551,6 +569,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>SUGARLO 50MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -614,6 +641,15 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">بخاخ ريد الكبير </t>
   </si>
   <si>
@@ -662,6 +698,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">مناديل جيب مبلله </t>
   </si>
   <si>
@@ -674,7 +719,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 7:40 PM</t>
+    <t>Thursday, 12 June, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2041,7 +2086,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2051,11 +2096,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2074,7 +2119,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2084,11 +2129,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -2107,7 +2152,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2117,11 +2162,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2133,14 +2178,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2150,14 +2195,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2166,14 +2211,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2183,14 +2228,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2199,14 +2244,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2216,14 +2261,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2232,14 +2277,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2249,14 +2294,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>51</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2265,14 +2310,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2282,14 +2327,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2298,14 +2343,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2315,11 +2360,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2331,7 +2376,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2348,14 +2393,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2364,7 +2409,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2381,14 +2426,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2397,14 +2442,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2414,14 +2459,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2430,14 +2475,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2447,14 +2492,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2463,28 +2508,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2496,7 +2541,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2509,18 +2554,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2529,14 +2574,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2546,14 +2591,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2562,14 +2607,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2579,11 +2624,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2595,14 +2640,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2612,14 +2657,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2645,14 +2690,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2661,14 +2706,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,11 +2723,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2701,7 +2746,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2711,11 +2756,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2727,14 +2772,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2744,7 +2789,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2777,11 +2822,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2793,14 +2838,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2810,14 +2855,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2833,21 +2878,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2859,28 +2904,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2892,14 +2937,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2909,14 +2954,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2925,14 +2970,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,11 +2987,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2958,14 +3003,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,11 +3020,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2991,14 +3036,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3008,11 +3053,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3024,7 +3069,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3041,11 +3086,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3057,14 +3102,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3074,11 +3119,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3090,14 +3135,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3107,11 +3152,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3123,14 +3168,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3140,7 +3185,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3163,7 +3208,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3180,7 +3225,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3229,7 +3274,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3243,7 +3288,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3255,14 +3300,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3272,11 +3317,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3288,14 +3333,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3305,14 +3350,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3321,14 +3366,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3338,14 +3383,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3354,28 +3399,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3387,31 +3432,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3420,31 +3465,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>210</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3453,14 +3498,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3470,14 +3515,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3486,7 +3531,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3503,11 +3548,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3519,14 +3564,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3536,49 +3581,214 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>220</v>
       </c>
-      <c t="s" r="Q74" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3298.8800000000001</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>31</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>32</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
         <v>221</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>222</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>223</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>31</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>32</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>224</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>226</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>16</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>32</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>227</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>229</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>31</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>32</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>230</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>232</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>233</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>32</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>234</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>3432.1599999999999</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>236</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>237</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>238</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3927,10 +4137,35 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -452,7 +452,7 @@
     <t>MIXDERM CREAM 15 GM</t>
   </si>
   <si>
-    <t>24.0000</t>
+    <t>48.0000</t>
   </si>
   <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
@@ -485,9 +485,6 @@
     <t>OPTIDEX -T EYE DROPS 5 ML</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
   </si>
   <si>
@@ -506,21 +503,24 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>27.0000</t>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
   </si>
   <si>
     <t>PETRO 30 TAB</t>
   </si>
   <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
     <t>PRONTO PLUS 20 TAB.</t>
   </si>
   <si>
@@ -719,7 +719,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 8:15 PM</t>
+    <t>Thursday, 12 June, 2025 8:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2647,7 +2647,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2664,7 +2664,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2855,11 +2855,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2904,14 +2904,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2925,10 +2925,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2937,14 +2937,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2954,11 +2954,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2970,14 +2970,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2987,14 +2987,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3003,14 +3003,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3020,11 +3020,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3036,14 +3036,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3053,14 +3053,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3069,14 +3069,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3086,14 +3086,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3102,14 +3102,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3119,14 +3119,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3135,14 +3135,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3152,14 +3152,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3168,14 +3168,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3185,14 +3185,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3201,14 +3201,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3218,11 +3218,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3234,14 +3234,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3251,14 +3251,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3267,14 +3267,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3284,14 +3284,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3317,14 +3317,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3333,14 +3333,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3350,11 +3350,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3383,14 +3383,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3399,14 +3399,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3416,14 +3416,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3432,14 +3432,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>71</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3449,14 +3449,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3465,14 +3465,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3482,14 +3482,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3498,31 +3498,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3531,14 +3531,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3548,11 +3548,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3564,14 +3564,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3581,11 +3581,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3597,14 +3597,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3614,14 +3614,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>222</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3647,14 +3647,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3663,14 +3663,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3680,14 +3680,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3696,14 +3696,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3713,11 +3713,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3729,14 +3729,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3746,49 +3746,82 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>232</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>233</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>32</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>234</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
         <v>235</v>
       </c>
-      <c t="s" r="Q79" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>3432.1599999999999</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3505.9299999999998</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
         <v>236</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
         <v>237</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
         <v>238</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4162,10 +4195,15 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -719,7 +719,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 8:23 PM</t>
+    <t>Thursday, 12 June, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -719,7 +719,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 8:29 PM</t>
+    <t>Thursday, 12 June, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -659,6 +659,9 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>راجون احمر 250 مل</t>
+  </si>
+  <si>
     <t>سائل ريد</t>
   </si>
   <si>
@@ -689,15 +692,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>شمع حريمي</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -719,7 +725,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 8:33 PM</t>
+    <t>Thursday, 12 June, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3604,7 +3610,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3614,11 +3620,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3630,14 +3636,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3647,14 +3653,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>222</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3663,7 +3669,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3680,14 +3686,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3696,14 +3702,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3713,14 +3719,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3729,14 +3735,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3746,11 +3752,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3762,14 +3768,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3779,49 +3785,115 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>231</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>31</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>32</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>232</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>234</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
         <v>235</v>
       </c>
-      <c t="s" r="Q80" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3505.9299999999998</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>32</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
         <v>236</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>237</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3595.9299999999998</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
         <v>238</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>239</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>240</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4200,10 +4272,20 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMRIZOLE 250MG 20 TAB</t>
   </si>
   <si>
@@ -86,9 +101,6 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -155,9 +167,6 @@
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -188,6 +197,18 @@
     <t>43.00</t>
   </si>
   <si>
+    <t>CELEBORG 200 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>CERELAC رز بدون لبن</t>
   </si>
   <si>
@@ -224,12 +245,6 @@
     <t>COLOVERIN A 30 TABLETS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
     <t>32.6700</t>
   </si>
   <si>
@@ -275,6 +290,18 @@
     <t>4.2500</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -371,6 +398,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>FELDENE 20MG 3 AMP I.M</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>31.5000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -392,22 +428,19 @@
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>1:4</t>
+    <t>1:3</t>
   </si>
   <si>
     <t>60.00</t>
   </si>
   <si>
-    <t>36.0000</t>
+    <t>48.0000</t>
   </si>
   <si>
     <t>LASILACTONE 50/20MG 30 TAB.</t>
@@ -452,9 +485,6 @@
     <t>MIXDERM CREAM 15 GM</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -638,7 +668,7 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>192.0000</t>
+    <t>288.0000</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -680,7 +710,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14:0</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -689,7 +719,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>15.0000</t>
   </si>
   <si>
     <t>شامبو جونسون 100 مل</t>
@@ -725,7 +755,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 8:34 PM</t>
+    <t>Thursday, 12 June, 2025 8:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1432,7 +1462,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1442,14 +1472,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1458,14 +1488,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1482,7 +1512,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1504,18 +1534,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1524,28 +1554,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1557,14 +1587,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1574,14 +1604,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1590,14 +1620,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1607,14 +1637,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1623,28 +1653,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1656,20 +1686,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1680,7 +1710,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1689,14 +1719,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1706,14 +1736,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1722,14 +1752,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1739,14 +1769,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1762,24 +1792,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1812,7 +1842,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1828,13 +1858,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1845,7 +1875,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1854,14 +1884,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1871,14 +1901,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1887,14 +1917,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1904,14 +1934,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1920,14 +1950,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1937,14 +1967,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1953,14 +1983,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1970,11 +2000,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1986,14 +2016,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2003,14 +2033,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2019,14 +2049,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2036,11 +2066,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2052,14 +2082,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2069,14 +2099,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2085,14 +2115,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2102,14 +2132,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2125,7 +2155,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2139,10 +2169,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2151,14 +2181,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2168,14 +2198,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2184,7 +2214,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2201,14 +2231,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2217,14 +2247,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2234,14 +2264,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2257,7 +2287,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2267,14 +2297,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2283,14 +2313,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2300,14 +2330,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>113</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2316,14 +2346,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2340,7 +2370,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2356,7 +2386,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2389,7 +2419,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2399,14 +2429,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>122</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2422,7 +2452,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2439,7 +2469,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2455,7 +2485,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2472,7 +2502,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2488,7 +2518,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2498,14 +2528,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2514,14 +2544,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2531,14 +2561,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2547,7 +2577,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2560,18 +2590,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2580,7 +2610,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2597,14 +2627,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2613,14 +2643,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,14 +2660,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2646,14 +2676,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2663,14 +2693,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,31 +2709,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2712,14 +2742,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,14 +2759,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2745,14 +2775,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2762,11 +2792,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2778,14 +2808,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,14 +2825,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,14 +2841,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2858,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2844,14 +2874,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,11 +2891,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2877,14 +2907,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,14 +2924,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,31 +2940,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2943,7 +2973,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2960,14 +2990,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2976,14 +3006,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,14 +3023,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3009,14 +3039,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,14 +3056,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3042,31 +3072,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3075,14 +3105,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,14 +3122,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3108,14 +3138,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,14 +3155,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3141,14 +3171,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,14 +3188,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3174,14 +3204,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,11 +3221,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3214,7 +3244,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,14 +3254,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3240,14 +3270,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3287,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3273,14 +3303,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3320,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,14 +3336,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,14 +3353,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3339,14 +3369,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,14 +3386,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,14 +3402,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,14 +3419,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3405,7 +3435,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3422,14 +3452,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,14 +3468,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3455,14 +3485,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3478,7 +3508,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3488,14 +3518,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3504,14 +3534,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3521,14 +3551,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,31 +3567,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3577,21 +3607,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3603,7 +3633,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3616,18 +3646,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3643,24 +3673,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,31 +3699,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>28</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>223</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3702,31 +3732,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,28 +3765,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3768,28 +3798,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3808,13 +3838,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -3822,10 +3852,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>233</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3841,59 +3871,191 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>237</v>
       </c>
-      <c t="s" r="Q82" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3595.9299999999998</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>56</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>36</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
         <v>238</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>239</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>240</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>16</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>36</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>238</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>241</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>35</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>36</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>242</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>244</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>245</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>36</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>246</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>3839.4699999999998</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>248</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>249</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>250</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4282,10 +4444,30 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>90.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>30.5000</t>
   </si>
   <si>
     <t>BRONCHOPRO 15MG/5ML SYRUP 100ML</t>
@@ -1600,7 +1609,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1627,7 +1636,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1644,7 +1653,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1660,7 +1669,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1677,7 +1686,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1693,13 +1702,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1726,13 +1735,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1743,7 +1752,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1752,14 +1761,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1769,14 +1778,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1785,14 +1794,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1802,14 +1811,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1839,10 +1848,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1851,20 +1860,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1875,7 +1884,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1891,21 +1900,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1917,14 +1926,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1941,7 +1950,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1950,14 +1959,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1967,14 +1976,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1983,14 +1992,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2000,14 +2009,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2016,14 +2025,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2056,7 +2065,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2066,11 +2075,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2082,14 +2091,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2106,7 +2115,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2122,7 +2131,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2132,11 +2141,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>26</v>
@@ -2148,14 +2157,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2172,7 +2181,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2188,7 +2197,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2214,14 +2223,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2231,14 +2240,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2264,11 +2273,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>26</v>
@@ -2280,14 +2289,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2297,7 +2306,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2313,14 +2322,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2330,11 +2339,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -2353,7 +2362,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2363,14 +2372,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2379,14 +2388,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2403,7 +2412,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2419,7 +2428,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2429,14 +2438,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2452,7 +2461,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2462,14 +2471,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>125</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>54</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2485,7 +2494,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2502,7 +2511,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2551,7 +2560,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2568,7 +2577,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2601,7 +2610,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2627,14 +2636,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2643,14 +2652,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2660,14 +2669,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>122</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2676,14 +2685,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2700,7 +2709,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2716,13 +2725,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2755,7 +2764,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2766,7 +2775,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2782,7 +2791,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2792,14 +2801,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2808,14 +2817,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2825,14 +2834,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2841,14 +2850,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2858,14 +2867,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2874,7 +2883,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2891,14 +2900,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2914,7 +2923,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2924,11 +2933,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2940,14 +2949,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2957,7 +2966,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2980,7 +2989,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2990,11 +2999,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3006,7 +3015,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3023,11 +3032,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3046,7 +3055,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3060,10 +3069,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3072,31 +3081,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3112,24 +3121,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3145,7 +3154,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3155,11 +3164,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>26</v>
@@ -3171,14 +3180,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3188,14 +3197,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3204,14 +3213,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3221,11 +3230,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3244,7 +3253,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3254,14 +3263,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3294,7 +3303,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3310,7 +3319,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3320,14 +3329,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3336,14 +3345,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3369,14 +3378,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3386,14 +3395,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3402,14 +3411,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3419,7 +3428,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3442,7 +3451,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3459,7 +3468,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3475,7 +3484,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3492,7 +3501,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3525,7 +3534,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3541,7 +3550,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3588,10 +3597,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3600,14 +3609,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3617,14 +3626,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3650,14 +3659,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3666,14 +3675,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3683,14 +3692,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3706,24 +3715,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3739,7 +3748,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3749,7 +3758,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3772,7 +3781,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3782,11 +3791,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>68</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3798,14 +3807,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>73</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3815,11 +3824,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>70</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3831,14 +3840,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3852,10 +3861,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>233</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3885,10 +3894,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>236</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>154</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3904,7 +3913,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3921,7 +3930,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3937,7 +3946,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3947,11 +3956,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3963,14 +3972,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3980,11 +3989,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4003,7 +4012,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4013,49 +4022,82 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>247</v>
       </c>
-      <c t="s" r="Q86" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>3839.4699999999998</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
         <v>248</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>36</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
         <v>249</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>250</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>3869.9699999999998</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>251</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>252</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>253</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4464,10 +4506,15 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -350,6 +350,15 @@
     <t>9:1</t>
   </si>
   <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -425,6 +434,18 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
@@ -479,6 +500,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>MACROFURAN 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>5.9400</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -539,6 +569,9 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -617,6 +650,21 @@
     <t>40.5900</t>
   </si>
   <si>
+    <t>T4-THYRO 100MCG 100 TABLETS</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>TAVANIC 500MG 5 TAB</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -635,6 +683,12 @@
     <t>75.9000</t>
   </si>
   <si>
+    <t>TINIFLOXACIN 10 TAB.</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
@@ -764,7 +818,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 8:36 PM</t>
+    <t>Thursday, 12 June, 2025 8:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2362,7 +2416,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2395,7 +2449,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2405,14 +2459,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2421,14 +2475,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2445,7 +2499,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2461,7 +2515,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2471,14 +2525,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2494,7 +2548,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2504,14 +2558,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>128</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>57</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2527,7 +2581,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2544,7 +2598,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2593,7 +2647,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2610,7 +2664,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2643,7 +2697,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2659,7 +2713,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2669,14 +2723,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2685,14 +2739,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2702,14 +2756,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>125</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2718,14 +2772,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2735,14 +2789,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2758,24 +2812,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2784,14 +2838,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2801,14 +2855,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2817,20 +2871,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2857,7 +2911,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2867,14 +2921,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2883,14 +2937,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2900,11 +2954,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>26</v>
@@ -2916,14 +2970,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2933,11 +2987,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2949,14 +3003,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2966,14 +3020,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2982,14 +3036,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2999,14 +3053,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3015,14 +3069,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3032,11 +3086,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3048,7 +3102,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3065,11 +3119,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3081,14 +3135,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3098,14 +3152,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3114,31 +3168,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3147,7 +3201,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3164,14 +3218,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3180,7 +3234,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3197,14 +3251,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3213,31 +3267,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3246,7 +3300,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3263,14 +3317,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3279,14 +3333,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3296,11 +3350,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>26</v>
@@ -3312,7 +3366,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3329,11 +3383,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3345,14 +3399,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3362,14 +3416,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3378,14 +3432,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3395,14 +3449,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3411,14 +3465,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3428,14 +3482,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3444,14 +3498,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3461,11 +3515,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>26</v>
@@ -3477,14 +3531,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3494,11 +3548,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3510,14 +3564,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3527,11 +3581,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>26</v>
@@ -3543,14 +3597,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3560,14 +3614,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3576,14 +3630,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3593,11 +3647,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3609,7 +3663,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3626,14 +3680,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3642,14 +3696,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3659,11 +3713,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3675,14 +3729,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3692,11 +3746,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -3708,14 +3762,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3725,14 +3779,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3741,28 +3795,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3774,7 +3828,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3787,15 +3841,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3807,31 +3861,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3840,28 +3894,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3873,31 +3927,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>236</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3906,31 +3960,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>157</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3939,14 +3993,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>59</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3956,11 +4010,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3972,7 +4026,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3989,11 +4043,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4005,14 +4059,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4022,11 +4076,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>70</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4038,14 +4092,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4055,49 +4109,247 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>3869.9699999999998</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>251</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>252</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>35</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>36</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
         <v>253</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>255</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>35</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>36</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>256</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>258</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>59</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>36</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>259</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>261</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>16</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>36</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>259</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>262</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>35</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>36</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>263</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>265</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>266</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>36</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>267</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>4357.2700000000004</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>269</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>270</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>271</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4511,10 +4763,40 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -818,7 +818,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 8:37 PM</t>
+    <t>Thursday, 12 June, 2025 8:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -818,7 +818,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 8:40 PM</t>
+    <t>Thursday, 12 June, 2025 8:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -230,537 +230,549 @@
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>-74.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DETRONIN 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>4.2500</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>2:9</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>6.3000</t>
+  </si>
+  <si>
+    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:12</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
+    <t>ESTOHALT 40MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>11.7600</t>
+  </si>
+  <si>
+    <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG 3 AMP I.M</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>31.5000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LUBRISTIRA 15ML EYE DROPS</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>5.9400</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>PRONTO PLUS 20 TAB.</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:14</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>SUGARLO 50MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>T4-THYRO 100MCG 100 TABLETS</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>TAVANIC 500MG 5 TAB</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
+    <t>TINIFLOXACIN 10 TAB.</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 2MG/5ML 120ML SYRUP</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>288.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخاخ ريد الكبير </t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>راجون احمر 250 مل</t>
+  </si>
+  <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>-74.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>COLOVERIN A 30 TABLETS</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DETRONIN 5MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>8.50</t>
-  </si>
-  <si>
-    <t>4.2500</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>DIASMECT 3GM 10 SACHETS</t>
-  </si>
-  <si>
-    <t>2:9</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>6.3000</t>
-  </si>
-  <si>
-    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>3:12</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>23.0400</t>
-  </si>
-  <si>
-    <t>ESTOHALT 40MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>11.7600</t>
-  </si>
-  <si>
-    <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG 3 AMP I.M</t>
-  </si>
-  <si>
-    <t>31.50</t>
-  </si>
-  <si>
-    <t>31.5000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LUBRISTIRA 15ML EYE DROPS</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>LUCIDRIL 500MG 20 F.C TAB</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>5.9400</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>152.0000</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>OPTIDEX -T EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>PAROFEN 30 OBLONG TAB.</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>PRONTO PLUS 20 TAB.</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL CREAM 20GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:14</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>RX MASSAGE GEL 50 GM</t>
-  </si>
-  <si>
-    <t>79.90</t>
-  </si>
-  <si>
-    <t>79.9000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>SUGARLO 50MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>T4-THYRO 100MCG 100 TABLETS</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>TAVANIC 500MG 5 TAB</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>75.9000</t>
-  </si>
-  <si>
-    <t>TINIFLOXACIN 10 TAB.</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 2MG/5ML 120ML SYRUP</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>288.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بخاخ ريد الكبير </t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>راجون احمر 250 مل</t>
-  </si>
-  <si>
     <t>سائل ريد</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>95.00</t>
   </si>
   <si>
@@ -818,7 +830,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 8:41 PM</t>
+    <t>Thursday, 12 June, 2025 8:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2004,7 +2016,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2294,14 +2306,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2310,14 +2322,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2327,14 +2339,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2343,14 +2355,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2360,11 +2372,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
@@ -2376,14 +2388,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2393,11 +2405,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -2409,14 +2421,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2426,11 +2438,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2449,7 +2461,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2482,7 +2494,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2492,14 +2504,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2508,14 +2520,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2532,7 +2544,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2548,7 +2560,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2558,14 +2570,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2581,7 +2593,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2591,14 +2603,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>131</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>57</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2614,7 +2626,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2631,7 +2643,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2680,7 +2692,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2697,7 +2709,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2713,7 +2725,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2723,14 +2735,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2739,14 +2751,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2789,14 +2801,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2805,14 +2817,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2822,14 +2834,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>128</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2862,7 +2874,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2878,13 +2890,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2917,7 +2929,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2928,7 +2940,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2944,7 +2956,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2977,7 +2989,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2987,14 +2999,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3003,14 +3015,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3020,14 +3032,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3036,14 +3048,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3053,14 +3065,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3069,7 +3081,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3086,14 +3098,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3109,7 +3121,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3119,11 +3131,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3135,14 +3147,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3152,7 +3164,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3175,7 +3187,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3185,11 +3197,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3201,7 +3213,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3218,11 +3230,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3241,7 +3253,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3258,7 +3270,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3274,21 +3286,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3300,31 +3312,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3333,14 +3345,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3350,11 +3362,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>26</v>
@@ -3366,14 +3378,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3383,14 +3395,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3399,14 +3411,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3416,11 +3428,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3432,14 +3444,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3449,14 +3461,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3465,14 +3477,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3482,14 +3494,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3498,14 +3510,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3515,14 +3527,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3538,7 +3550,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3548,14 +3560,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3564,14 +3576,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3581,14 +3593,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3597,14 +3609,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3614,14 +3626,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3630,14 +3642,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3647,14 +3659,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3663,14 +3675,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3680,14 +3692,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3696,14 +3708,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3713,11 +3725,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3729,14 +3741,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3746,14 +3758,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3762,14 +3774,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3779,14 +3791,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3795,7 +3807,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3812,14 +3824,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3828,14 +3840,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3845,14 +3857,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3861,14 +3873,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3878,14 +3890,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3894,14 +3906,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3911,11 +3923,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3934,7 +3946,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3944,11 +3956,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>98</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>26</v>
@@ -3967,7 +3979,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3977,14 +3989,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3993,31 +4005,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4026,31 +4038,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4059,14 +4071,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4076,11 +4088,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4099,7 +4111,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4109,11 +4121,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4125,14 +4137,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4142,14 +4154,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>254</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4158,14 +4170,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4175,14 +4187,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4191,14 +4203,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4208,14 +4220,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4224,14 +4236,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4241,14 +4253,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4264,7 +4276,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4297,7 +4309,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4307,49 +4319,115 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>266</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>35</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>36</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>267</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
         <v>268</v>
       </c>
-      <c t="s" r="Q93" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4357.2700000000004</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>269</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
         <v>270</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>36</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
         <v>271</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>4424.2700000000004</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>273</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>274</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>275</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4793,10 +4871,20 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -80,102 +80,105 @@
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 250MG 20 TAB</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATOMXAPEX 4MG/ML  SYRUP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>30.5000</t>
+  </si>
+  <si>
+    <t>BRONCHOPRO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>142.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 250MG 20 TAB</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATOMXAPEX 4MG/ML  SYRUP</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
-  </si>
-  <si>
-    <t>30.50</t>
-  </si>
-  <si>
-    <t>30.5000</t>
-  </si>
-  <si>
-    <t>BRONCHOPRO 15MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 200MG 30 TAB</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
-  </si>
-  <si>
-    <t>142.00</t>
-  </si>
-  <si>
-    <t>142.0000</t>
-  </si>
-  <si>
-    <t>CARVID 6.25MG 30TAB</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>CATAFAST 50 MG 9 SACHET</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -209,9 +212,6 @@
     <t>CELEBORG 200 MG 20 CAPS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -551,6 +551,12 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -725,6 +731,9 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -806,6 +815,9 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>شراب تحت الركبه XXL</t>
+  </si>
+  <si>
     <t>شمع حريمي</t>
   </si>
   <si>
@@ -830,7 +842,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 8:43 PM</t>
+    <t>Thursday, 12 June, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1554,7 +1566,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1563,7 +1575,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1580,14 +1592,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1620,7 +1632,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1752,7 +1764,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1801,7 +1813,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1834,7 +1846,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1844,14 +1856,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1860,14 +1872,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1877,11 +1889,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1893,14 +1905,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1910,11 +1922,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1926,14 +1938,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1950,7 +1962,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2065,7 +2077,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2082,7 +2094,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2131,7 +2143,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2214,7 +2226,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2247,7 +2259,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2346,7 +2358,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2379,7 +2391,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2395,7 +2407,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2412,7 +2424,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2445,7 +2457,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2478,7 +2490,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2511,7 +2523,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2643,7 +2655,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2775,7 +2787,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2808,7 +2820,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2973,7 +2985,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3006,7 +3018,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3088,7 +3100,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3105,7 +3117,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3121,7 +3133,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3187,7 +3199,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3197,14 +3209,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3213,14 +3225,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3230,11 +3242,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3246,7 +3258,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3263,11 +3275,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3279,14 +3291,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3296,14 +3308,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3319,21 +3331,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3345,31 +3357,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3378,14 +3390,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3395,14 +3407,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3411,14 +3423,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3428,14 +3440,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3444,14 +3456,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3461,11 +3473,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3477,14 +3489,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3494,14 +3506,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3510,14 +3522,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3527,14 +3539,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3543,14 +3555,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3560,14 +3572,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3583,7 +3595,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3593,14 +3605,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3616,7 +3628,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3626,11 +3638,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3642,14 +3654,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3659,14 +3671,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3682,7 +3694,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3692,14 +3704,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3708,14 +3720,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3725,14 +3737,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3741,14 +3753,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3758,7 +3770,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3791,11 +3803,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3807,14 +3819,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3824,14 +3836,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3840,14 +3852,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,14 +3869,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3880,7 +3892,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3890,14 +3902,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3906,14 +3918,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3923,11 +3935,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3939,7 +3951,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3956,14 +3968,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3979,7 +3991,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3989,14 +4001,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4012,7 +4024,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4022,14 +4034,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4038,14 +4050,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4055,14 +4067,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4071,31 +4083,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4104,31 +4116,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4137,14 +4149,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4154,11 +4166,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4170,14 +4182,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4187,11 +4199,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4203,14 +4215,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4220,14 +4232,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>70</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>258</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4236,14 +4248,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4253,14 +4265,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4269,14 +4281,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4286,14 +4298,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4302,14 +4314,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4326,7 +4338,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4335,14 +4347,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4352,11 +4364,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4368,14 +4380,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4385,49 +4397,148 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>269</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>16</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>36</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>266</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>270</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>35</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>36</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>271</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>272</v>
       </c>
-      <c t="s" r="Q95" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4424.2700000000004</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>273</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
         <v>274</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>36</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
         <v>275</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4619.9300000000003</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>277</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>278</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>279</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4881,10 +4992,25 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -842,7 +842,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 8:49 PM</t>
+    <t>Thursday, 12 June, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -482,6 +482,21 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>KETOPREK 75 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
@@ -546,9 +561,6 @@
   </si>
   <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>22.0000</t>
   </si>
   <si>
     <t>OFLAM 50MG 20 QUICKETAB.</t>
@@ -2902,7 +2914,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2912,11 +2924,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2928,31 +2940,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2961,14 +2973,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2978,14 +2990,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2994,31 +3006,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3027,14 +3039,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3044,14 +3056,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3060,14 +3072,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3077,14 +3089,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3100,7 +3112,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3110,14 +3122,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3126,14 +3138,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3143,14 +3155,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3159,14 +3171,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3176,14 +3188,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3199,7 +3211,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3209,14 +3221,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3225,14 +3237,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3242,11 +3254,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3258,14 +3270,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3279,10 +3291,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3298,7 +3310,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3331,7 +3343,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3341,14 +3353,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3357,31 +3369,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3390,14 +3402,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3407,14 +3419,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3423,31 +3435,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3463,7 +3475,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3473,14 +3485,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3489,14 +3501,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3506,14 +3518,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3529,7 +3541,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3539,14 +3551,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3555,14 +3567,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3572,11 +3584,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3588,14 +3600,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3605,11 +3617,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>29</v>
@@ -3621,14 +3633,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3638,7 +3650,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3661,7 +3673,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3671,14 +3683,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3687,14 +3699,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3704,14 +3716,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3720,14 +3732,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3737,14 +3749,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3753,14 +3765,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3770,14 +3782,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3786,14 +3798,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3803,14 +3815,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3819,14 +3831,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3836,11 +3848,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3852,14 +3864,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3869,14 +3881,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3885,14 +3897,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3902,14 +3914,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3918,7 +3930,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3935,14 +3947,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3951,14 +3963,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3968,14 +3980,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3984,14 +3996,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4001,14 +4013,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>105</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4017,14 +4029,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4034,11 +4046,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4050,14 +4062,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4067,14 +4079,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4083,14 +4095,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4100,14 +4112,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4123,7 +4135,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4133,14 +4145,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4149,31 +4161,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4182,31 +4194,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4215,14 +4227,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4232,11 +4244,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4248,14 +4260,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4265,11 +4277,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4281,14 +4293,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4298,14 +4310,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>70</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>261</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4314,14 +4326,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4331,14 +4343,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4347,14 +4359,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4364,14 +4376,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4380,7 +4392,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4397,14 +4409,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4420,7 +4432,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4430,11 +4442,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4446,7 +4458,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4463,11 +4475,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4486,7 +4498,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4496,49 +4508,115 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>274</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>35</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>36</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>275</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
         <v>276</v>
       </c>
-      <c t="s" r="Q98" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4619.9300000000003</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>277</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
         <v>278</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>36</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
         <v>279</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>4677.9300000000003</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>281</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>282</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>283</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5007,10 +5085,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
@@ -98,9 +113,6 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -251,6 +263,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN A 30 TABLETS</t>
   </si>
   <si>
@@ -269,6 +290,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CYSTONE 60 TAB</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
@@ -305,12 +335,6 @@
     <t>9:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -365,9 +389,6 @@
     <t>138.00</t>
   </si>
   <si>
-    <t>69.0000</t>
-  </si>
-  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -608,9 +629,6 @@
     <t>PAROFEN 30 OBLONG TAB.</t>
   </si>
   <si>
-    <t>69.00</t>
-  </si>
-  <si>
     <t>22.7700</t>
   </si>
   <si>
@@ -641,6 +659,9 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
     <t>RX MASSAGE GEL 50 GM</t>
   </si>
   <si>
@@ -650,6 +671,12 @@
     <t>79.9000</t>
   </si>
   <si>
+    <t>SOFENACIN 5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -806,7 +833,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -854,7 +881,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 8:50 PM</t>
+    <t>Thursday, 12 June, 2025 8:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1578,7 +1605,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1587,14 +1614,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1604,14 +1631,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1620,14 +1647,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1644,7 +1671,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1666,15 +1693,15 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1686,31 +1713,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1719,31 +1746,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1752,14 +1779,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1769,14 +1796,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1785,14 +1812,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1802,11 +1829,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1818,31 +1845,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1851,20 +1878,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1875,7 +1902,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1884,14 +1911,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1901,14 +1928,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>62</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1938,10 +1965,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1950,14 +1977,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1967,14 +1994,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1983,28 +2010,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2016,20 +2043,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2040,7 +2067,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2056,7 +2083,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2066,14 +2093,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2099,14 +2126,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2115,14 +2142,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2132,14 +2159,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2148,14 +2175,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2165,7 +2192,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2205,7 +2232,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2221,7 +2248,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2238,7 +2265,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2254,7 +2281,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2264,14 +2291,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2280,14 +2307,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2304,7 +2331,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2320,7 +2347,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2330,7 +2357,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2363,14 +2390,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2379,14 +2406,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2396,14 +2423,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2412,14 +2439,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2429,14 +2456,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2462,14 +2489,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2478,14 +2505,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2495,14 +2522,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2511,14 +2538,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2528,14 +2555,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2561,14 +2588,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2577,14 +2604,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2594,11 +2621,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2610,14 +2637,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2627,14 +2654,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2643,14 +2670,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2660,14 +2687,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2676,14 +2703,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2693,14 +2720,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2709,14 +2736,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2726,14 +2753,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2742,14 +2769,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2759,14 +2786,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2775,14 +2802,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2792,14 +2819,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2808,14 +2835,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2825,14 +2852,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2841,14 +2868,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2858,14 +2885,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2874,14 +2901,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2891,14 +2918,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2907,14 +2934,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2924,11 +2951,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2940,14 +2967,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2957,14 +2984,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2973,14 +3000,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2990,14 +3017,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3006,31 +3033,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3039,7 +3066,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3056,14 +3083,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3072,14 +3099,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3089,14 +3116,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3105,31 +3132,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3138,14 +3165,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3155,14 +3182,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3171,14 +3198,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3188,14 +3215,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3204,14 +3231,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3221,14 +3248,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3237,14 +3264,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3254,14 +3281,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3270,14 +3297,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3287,14 +3314,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3303,14 +3330,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3320,14 +3347,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3336,14 +3363,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3353,14 +3380,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3369,14 +3396,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3386,7 +3413,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3409,7 +3436,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3423,7 +3450,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3435,28 +3462,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3468,14 +3495,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3485,14 +3512,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3501,14 +3528,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3518,14 +3545,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3541,24 +3568,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>71</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3567,14 +3594,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3584,11 +3611,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3600,14 +3627,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3617,14 +3644,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>85</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3633,14 +3660,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3650,14 +3677,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3666,14 +3693,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3683,14 +3710,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3699,14 +3726,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3716,11 +3743,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3732,14 +3759,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3749,11 +3776,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3765,14 +3792,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3782,14 +3809,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3805,7 +3832,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3815,14 +3842,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3831,14 +3858,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3848,11 +3875,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3864,14 +3891,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3881,14 +3908,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3897,14 +3924,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3914,14 +3941,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>41</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3930,14 +3957,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3947,14 +3974,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3963,14 +3990,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3980,14 +4007,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3996,14 +4023,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4013,14 +4040,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4029,14 +4056,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4046,14 +4073,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4062,14 +4089,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4079,14 +4106,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4095,14 +4122,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4112,11 +4139,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>136</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4128,14 +4155,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4145,11 +4172,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4161,14 +4188,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4178,14 +4205,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4194,14 +4221,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4211,14 +4238,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4227,28 +4254,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4260,31 +4287,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4293,31 +4320,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4326,28 +4353,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4359,31 +4386,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>265</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4392,31 +4419,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>32</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>175</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4425,31 +4452,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4458,31 +4485,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>35</v>
+        <v>268</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4491,20 +4518,20 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4515,7 +4542,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4524,31 +4551,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4557,66 +4584,231 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>39</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>278</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>64</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>40</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>279</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>280</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>4677.9300000000003</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
+      <c t="s" r="Q101" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>281</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>39</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>40</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>265</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>282</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>21</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>40</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>279</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>283</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>39</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>40</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>284</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>286</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>287</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>40</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>288</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>4929.1000000000004</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>290</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>291</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>292</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5095,10 +5287,35 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -881,7 +881,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 8:57 PM</t>
+    <t>Thursday, 12 June, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>BETASERC 16MG 60 TAB</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>72.2700</t>
+  </si>
+  <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
@@ -329,6 +338,9 @@
     <t>4.2500</t>
   </si>
   <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -485,6 +497,15 @@
     <t>24.7500</t>
   </si>
   <si>
+    <t>IROSPECT 20 PIECES</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -833,7 +854,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>18:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -881,7 +902,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 8:59 PM</t>
+    <t>Thursday, 12 June, 2025 9:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1753,13 +1774,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1770,7 +1791,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1792,7 +1813,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1819,7 +1840,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1836,7 +1857,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1852,7 +1873,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1869,7 +1890,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1885,13 +1906,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1918,24 +1939,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1944,14 +1965,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1961,14 +1982,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1977,14 +1998,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1994,14 +2015,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2017,7 +2038,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2027,14 +2048,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2050,13 +2071,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2067,7 +2088,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2083,24 +2104,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2109,14 +2130,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2133,7 +2154,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2142,14 +2163,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2159,14 +2180,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>86</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2182,7 +2203,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2192,14 +2213,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2208,14 +2229,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2225,14 +2246,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2241,14 +2262,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2281,7 +2302,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2314,7 +2335,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2324,11 +2345,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2340,14 +2361,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2364,7 +2385,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2380,7 +2401,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2390,11 +2411,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2406,14 +2427,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2423,11 +2444,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2439,14 +2460,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2456,14 +2477,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2472,14 +2493,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2489,14 +2510,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2505,14 +2526,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2522,14 +2543,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2538,14 +2559,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2555,14 +2576,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2578,7 +2599,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2588,11 +2609,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2611,7 +2632,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2625,7 +2646,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2644,7 +2665,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2654,11 +2675,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2670,14 +2691,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2687,14 +2708,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2703,14 +2724,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2720,14 +2741,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2736,14 +2757,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2753,14 +2774,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>138</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2769,14 +2790,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2786,14 +2807,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2802,14 +2823,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2819,14 +2840,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2835,14 +2856,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2852,14 +2873,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2868,14 +2889,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2885,14 +2906,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2901,14 +2922,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2918,14 +2939,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2934,7 +2955,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2951,14 +2972,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2967,14 +2988,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2984,14 +3005,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3000,14 +3021,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3017,14 +3038,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3033,14 +3054,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3050,14 +3071,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3066,14 +3087,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3083,14 +3104,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3099,14 +3120,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3116,14 +3137,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3132,28 +3153,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3165,14 +3186,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3182,11 +3203,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3198,7 +3219,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3215,14 +3236,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3231,28 +3252,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3264,14 +3285,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3281,14 +3302,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3297,14 +3318,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3314,11 +3335,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3330,14 +3351,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3347,11 +3368,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3363,14 +3384,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3380,14 +3401,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3396,14 +3417,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3413,11 +3434,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3429,14 +3450,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3446,11 +3467,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3462,7 +3483,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3479,11 +3500,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3495,14 +3516,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3512,14 +3533,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3535,7 +3556,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3549,10 +3570,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3561,31 +3582,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3594,7 +3615,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3611,14 +3632,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3644,14 +3665,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>85</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3660,31 +3681,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3693,7 +3714,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3710,14 +3731,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>88</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3726,14 +3747,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3743,11 +3764,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3759,14 +3780,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3776,14 +3797,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3792,14 +3813,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3809,11 +3830,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3825,14 +3846,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3842,11 +3863,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3858,14 +3879,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3875,11 +3896,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3898,7 +3919,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3908,11 +3929,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3924,14 +3945,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3941,14 +3962,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3957,14 +3978,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3974,11 +3995,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3990,14 +4011,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4007,14 +4028,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4023,7 +4044,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4040,11 +4061,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4056,7 +4077,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4073,14 +4094,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4089,14 +4110,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4106,14 +4127,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4122,7 +4143,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4139,14 +4160,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4155,14 +4176,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4172,14 +4193,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4188,14 +4209,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4205,11 +4226,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4221,14 +4242,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4238,14 +4259,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4254,14 +4275,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4271,11 +4292,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>113</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4287,14 +4308,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4304,11 +4325,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>143</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>144</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4320,14 +4341,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4337,11 +4358,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4353,14 +4374,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4370,11 +4391,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4386,14 +4407,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4403,14 +4424,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>147</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4432,15 +4453,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4452,31 +4473,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4485,31 +4506,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4518,14 +4539,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>112</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4535,11 +4556,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>32</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4551,14 +4572,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4568,14 +4589,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>274</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4584,14 +4605,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4601,14 +4622,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>182</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4617,14 +4638,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4634,11 +4655,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4650,7 +4671,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4667,14 +4688,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>266</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4690,7 +4711,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4700,14 +4721,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4716,14 +4737,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4733,11 +4754,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4749,14 +4770,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>287</v>
+        <v>39</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4766,49 +4787,148 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>289</v>
       </c>
-      <c t="s" r="Q105" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>4929.1000000000004</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>21</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>40</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>286</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>290</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>39</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>40</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
         <v>291</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>292</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c t="s" r="Q107" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>293</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>294</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>40</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>295</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5107.3699999999999</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>297</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>298</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>299</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5312,10 +5432,25 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -506,6 +506,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>KEFENTECH 30MG 7 PLASTER SHEET.</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -593,6 +602,12 @@
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -608,9 +623,6 @@
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -854,7 +866,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>22:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -881,6 +893,12 @@
     <t>شمع حريمي</t>
   </si>
   <si>
+    <t>لزقه النمر بسعر القطعه</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -893,16 +911,13 @@
     <t xml:space="preserve">مناديل جيب مبلله </t>
   </si>
   <si>
-    <t>22:0</t>
-  </si>
-  <si>
     <t>6.00</t>
   </si>
   <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 9:00 PM</t>
+    <t>Thursday, 12 June, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3094,7 +3109,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3104,14 +3119,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3120,14 +3135,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3137,14 +3152,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3153,14 +3168,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3170,14 +3185,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3186,14 +3201,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3203,14 +3218,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3226,7 +3241,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3243,7 +3258,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3259,13 +3274,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3298,7 +3313,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3309,7 +3324,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3325,7 +3340,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3358,7 +3373,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3368,14 +3383,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3384,14 +3399,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3401,14 +3416,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3417,14 +3432,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3434,14 +3449,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3450,7 +3465,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3467,14 +3482,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3490,7 +3505,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3500,14 +3515,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3516,14 +3531,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3533,14 +3548,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3549,14 +3564,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3566,11 +3581,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3603,7 +3618,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3622,7 +3637,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3655,7 +3670,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3665,14 +3680,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3681,31 +3696,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3714,14 +3729,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3731,14 +3746,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3747,31 +3762,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3780,14 +3795,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3797,14 +3812,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3813,14 +3828,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3830,14 +3845,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>88</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3853,7 +3868,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3863,14 +3878,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3879,7 +3894,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3896,14 +3911,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3912,14 +3927,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3936,7 +3951,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3952,7 +3967,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3962,11 +3977,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3978,14 +3993,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3995,14 +4010,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>36</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4018,7 +4033,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4028,14 +4043,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4051,7 +4066,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4061,14 +4076,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4077,14 +4092,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4094,14 +4109,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4110,14 +4125,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4127,14 +4142,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4143,14 +4158,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4160,14 +4175,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4176,14 +4191,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4193,14 +4208,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4209,14 +4224,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4226,11 +4241,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4242,14 +4257,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4259,14 +4274,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>157</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4275,14 +4290,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4292,14 +4307,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4308,7 +4323,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4325,14 +4340,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4341,14 +4356,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4358,14 +4373,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4374,14 +4389,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4391,14 +4406,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>117</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4407,14 +4422,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4424,11 +4439,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>148</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4440,14 +4455,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4457,14 +4472,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4473,14 +4488,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4490,14 +4505,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4513,7 +4528,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>23</v>
+        <v>266</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4523,14 +4538,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4539,31 +4554,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>269</v>
+        <v>28</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4572,31 +4587,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4605,14 +4620,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4622,11 +4637,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4638,14 +4653,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4655,11 +4670,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4671,14 +4686,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4688,14 +4703,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>281</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4704,14 +4719,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4721,14 +4736,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>189</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4737,14 +4752,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4754,14 +4769,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4770,7 +4785,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4787,14 +4802,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4810,7 +4825,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4820,11 +4835,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4836,7 +4851,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4853,11 +4868,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4876,7 +4891,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>21</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4886,49 +4901,148 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>294</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>279</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>40</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>295</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>296</v>
       </c>
-      <c t="s" r="Q108" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5107.3699999999999</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>39</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>40</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
         <v>297</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>298</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c t="s" r="Q110" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>299</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>285</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>40</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>300</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>5265.3699999999999</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>302</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>303</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>304</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5447,10 +5561,25 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -47,7 +47,7 @@
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
-    <t>3:2</t>
+    <t>3:1</t>
   </si>
   <si>
     <t>1</t>
@@ -56,297 +56,294 @@
     <t>36.00</t>
   </si>
   <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 250MG 20 TAB</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATOMXAPEX 4MG/ML  SYRUP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>BETASERC 16MG 60 TAB</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>72.2700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>30.5000</t>
+  </si>
+  <si>
+    <t>BRONCHOPRO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>142.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>CELEBORG 200 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>CERELAC رز بدون لبن</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>-74.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CYSTONE 60 TAB</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DETRONIN 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>4.2500</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
     <t>11.8800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ALL-VENT SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>ALPHINTERN 30 F.C.TABS</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>57.4200</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>AMBEZIM-G 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 250MG 20 TAB</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATOMXAPEX 4MG/ML  SYRUP</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>BETASERC 16MG 60 TAB</t>
-  </si>
-  <si>
-    <t>219.00</t>
-  </si>
-  <si>
-    <t>72.2700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
-  </si>
-  <si>
-    <t>30.50</t>
-  </si>
-  <si>
-    <t>30.5000</t>
-  </si>
-  <si>
-    <t>BRONCHOPRO 15MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 200MG 30 TAB</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
-  </si>
-  <si>
-    <t>142.00</t>
-  </si>
-  <si>
-    <t>142.0000</t>
-  </si>
-  <si>
-    <t>CARVID 6.25MG 30TAB</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>CATAFAST 50 MG 9 SACHET</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>CELEBORG 200 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>CERELAC رز بدون لبن</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>-74.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>CIPROFAR 500MG 10 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>COLOVERIN A 30 TABLETS</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CYSTONE 60 TAB</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>98.0000</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DETRONIN 5MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>8.50</t>
-  </si>
-  <si>
-    <t>4.2500</t>
-  </si>
-  <si>
-    <t>DEVAROL-S 200000 I.U AMPOULE</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -476,6 +473,18 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -587,9 +596,6 @@
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
@@ -671,6 +677,15 @@
     <t>PRONTO PLUS 20 TAB.</t>
   </si>
   <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL CREAM 20GM</t>
   </si>
   <si>
@@ -746,9 +761,6 @@
     <t>58.00</t>
   </si>
   <si>
-    <t>58.0000</t>
-  </si>
-  <si>
     <t>TAVANIC 500MG 5 TAB</t>
   </si>
   <si>
@@ -818,6 +830,12 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -845,6 +863,12 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
     <t>راجون احمر 250 مل</t>
   </si>
   <si>
@@ -875,30 +899,33 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>شراب تحت الركبه XXL</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>شامبو جونسون 100 مل</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>شراب تحت الركبه XXL</t>
-  </si>
-  <si>
-    <t>شمع حريمي</t>
-  </si>
-  <si>
     <t>لزقه النمر بسعر القطعه</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -908,6 +935,15 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">مناديل جيب مبلله </t>
   </si>
   <si>
@@ -917,7 +953,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 9:11 PM</t>
+    <t>Thursday, 12 June, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1641,7 +1677,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1650,14 +1686,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1667,14 +1703,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1683,7 +1719,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1700,14 +1736,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1740,7 +1776,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1789,7 +1825,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1806,7 +1842,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1888,7 +1924,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1905,7 +1941,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1954,7 +1990,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2001,10 +2037,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>64</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>65</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2013,14 +2049,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2030,11 +2066,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -2046,14 +2082,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2063,11 +2099,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>23</v>
@@ -2079,14 +2115,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2096,14 +2132,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2112,7 +2148,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2129,11 +2165,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -2145,14 +2181,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2162,11 +2198,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>23</v>
@@ -2178,7 +2214,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2195,14 +2231,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>85</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>86</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2211,7 +2247,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2228,11 +2264,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2244,14 +2280,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2261,14 +2297,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2277,14 +2313,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2294,11 +2330,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2310,7 +2346,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2327,11 +2363,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2343,14 +2379,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2360,11 +2396,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2376,14 +2412,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2393,11 +2429,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2409,7 +2445,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2426,14 +2462,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2442,14 +2478,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2475,14 +2511,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2496,10 +2532,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2508,7 +2544,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2525,11 +2561,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2541,14 +2577,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2558,11 +2594,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2574,14 +2610,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2591,14 +2627,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2607,14 +2643,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2624,14 +2660,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2640,14 +2676,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2657,14 +2693,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2673,14 +2709,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2697,7 +2733,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2706,7 +2742,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2723,14 +2759,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2739,14 +2775,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2756,14 +2792,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2772,14 +2808,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2789,14 +2825,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2805,7 +2841,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2822,11 +2858,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2838,14 +2874,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2855,14 +2891,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2871,14 +2907,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2888,14 +2924,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2904,7 +2940,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2921,11 +2957,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2937,7 +2973,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2954,11 +2990,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2970,7 +3006,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2987,11 +3023,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>23</v>
@@ -3003,14 +3039,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3020,14 +3056,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3036,14 +3072,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3060,7 +3096,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3076,7 +3112,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3093,7 +3129,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3109,7 +3145,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3126,7 +3162,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3142,7 +3178,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3152,14 +3188,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3168,14 +3204,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3185,14 +3221,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3201,14 +3237,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3218,14 +3254,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3234,14 +3270,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3251,14 +3287,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3274,7 +3310,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3291,7 +3327,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3307,13 +3343,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3346,7 +3382,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3357,7 +3393,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3373,7 +3409,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3390,7 +3426,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3406,7 +3442,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3416,14 +3452,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3432,14 +3468,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3449,14 +3485,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3465,14 +3501,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3482,14 +3518,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3498,14 +3534,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3515,14 +3551,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3538,7 +3574,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3552,10 +3588,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3564,14 +3600,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3581,11 +3617,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3597,7 +3633,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3614,11 +3650,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3630,14 +3666,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3647,11 +3683,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>53</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3663,14 +3699,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3680,11 +3716,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3696,7 +3732,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3713,11 +3749,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3729,14 +3765,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3746,14 +3782,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3769,24 +3805,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3795,24 +3831,24 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3835,7 +3871,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3845,14 +3881,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3861,14 +3897,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3878,14 +3914,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3894,14 +3930,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3911,11 +3947,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3927,14 +3963,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3944,14 +3980,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3960,7 +3996,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3977,14 +4013,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4000,7 +4036,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4010,14 +4046,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4026,14 +4062,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4043,14 +4079,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>225</v>
+        <v>63</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4066,7 +4102,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4076,14 +4112,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4092,14 +4128,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4109,14 +4145,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4125,14 +4161,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4142,14 +4178,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4158,14 +4194,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4175,14 +4211,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4191,14 +4227,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4208,14 +4244,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4231,7 +4267,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4241,14 +4277,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4257,14 +4293,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4274,14 +4310,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>157</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4297,7 +4333,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4311,7 +4347,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4323,14 +4359,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4340,14 +4376,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4356,14 +4392,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4373,14 +4409,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4389,7 +4425,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4406,14 +4442,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4422,14 +4458,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4439,14 +4475,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4455,14 +4491,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4472,14 +4508,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4488,14 +4524,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4505,11 +4541,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>147</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4521,14 +4557,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4538,14 +4574,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4554,14 +4590,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4571,14 +4607,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4594,7 +4630,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4604,14 +4640,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4620,31 +4656,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4653,31 +4689,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4686,31 +4722,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>279</v>
+        <v>23</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4719,14 +4755,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>116</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4736,11 +4772,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4752,14 +4788,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4769,14 +4805,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>285</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4785,14 +4821,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>39</v>
+        <v>285</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4802,14 +4838,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>31</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>192</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4818,14 +4854,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>67</v>
+        <v>287</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4835,11 +4871,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4851,14 +4887,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4868,11 +4904,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4884,14 +4920,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4901,14 +4937,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4924,7 +4960,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>279</v>
+        <v>39</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4938,10 +4974,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>270</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4957,7 +4993,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4990,7 +5026,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>285</v>
+        <v>39</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5000,49 +5036,247 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>300</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>21</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>40</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>297</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>301</v>
       </c>
-      <c t="s" r="Q111" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>5265.3699999999999</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>39</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>40</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
         <v>302</v>
       </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>303</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c t="s" r="Q113" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>304</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>287</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>40</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>302</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>305</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>39</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>40</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>306</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>308</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>309</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>40</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>143</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>311</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>293</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>40</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>312</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>5429.4700000000003</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>314</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>315</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>316</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5576,10 +5810,40 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -197,183 +197,195 @@
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>CELEBORG 200 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>CERELAC رز بدون لبن</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>-74.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN A 30 TABLETS</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CYSTONE 60 TAB</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>DAPAGLIF 10MG 14 F.C. TABS</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>178.0000</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DETRONIN 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>4.2500</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>2:9</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>6.3000</t>
+  </si>
+  <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>CELEBORG 200 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>CERELAC رز بدون لبن</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>-74.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>CIPROFAR 500MG 10 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>COLOVERIN A 30 TABLETS</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CYSTONE 60 TAB</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>98.0000</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DETRONIN 5MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>8.50</t>
-  </si>
-  <si>
-    <t>4.2500</t>
-  </si>
-  <si>
-    <t>DEVAROL-S 200000 I.U AMPOULE</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DIASMECT 3GM 10 SACHETS</t>
-  </si>
-  <si>
-    <t>2:9</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>6.3000</t>
-  </si>
-  <si>
     <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -434,9 +446,6 @@
     <t>2:3</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -953,7 +962,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 9:15 PM</t>
+    <t>Thursday, 12 June, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2023,7 +2032,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2033,11 +2042,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>64</v>
@@ -2386,7 +2395,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2419,7 +2428,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2452,7 +2461,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2469,7 +2478,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2485,7 +2494,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2495,14 +2504,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2511,14 +2520,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2528,14 +2537,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2551,7 +2560,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2561,14 +2570,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2584,7 +2593,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2594,7 +2603,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2627,14 +2636,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2643,14 +2652,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2660,14 +2669,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2676,14 +2685,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2693,11 +2702,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>33</v>
@@ -2709,14 +2718,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2726,11 +2735,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>33</v>
@@ -2742,14 +2751,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2759,11 +2768,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>33</v>
@@ -2775,14 +2784,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2792,11 +2801,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>33</v>
@@ -2808,14 +2817,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2832,7 +2841,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2848,7 +2857,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2858,14 +2867,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2874,14 +2883,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2891,14 +2900,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>141</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2907,14 +2916,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2924,11 +2933,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>64</v>
@@ -2947,7 +2956,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2964,7 +2973,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3013,7 +3022,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3030,7 +3039,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3046,7 +3055,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3056,14 +3065,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3072,14 +3081,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3089,11 +3098,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>33</v>
@@ -3105,14 +3114,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3145,7 +3154,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3178,7 +3187,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3195,7 +3204,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3211,7 +3220,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3221,14 +3230,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3237,14 +3246,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3254,14 +3263,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>141</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3287,14 +3296,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3303,14 +3312,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3320,14 +3329,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3343,7 +3352,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3360,7 +3369,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3376,13 +3385,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3415,7 +3424,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3426,7 +3435,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3442,7 +3451,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3475,7 +3484,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3492,7 +3501,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3508,7 +3517,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3518,14 +3527,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3534,14 +3543,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3551,14 +3560,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3567,14 +3576,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3584,14 +3593,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3600,14 +3609,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3617,14 +3626,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3640,7 +3649,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3650,11 +3659,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3666,7 +3675,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3683,11 +3692,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3699,14 +3708,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3716,11 +3725,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>53</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3739,7 +3748,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3749,11 +3758,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3765,7 +3774,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3782,11 +3791,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3805,7 +3814,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3819,10 +3828,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3831,28 +3840,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3871,24 +3880,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3897,14 +3906,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3918,7 +3927,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>33</v>
@@ -3930,14 +3939,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3947,14 +3956,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3963,14 +3972,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3980,14 +3989,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4003,7 +4012,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4020,7 +4029,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4036,7 +4045,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4046,14 +4055,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4062,14 +4071,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4079,11 +4088,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>33</v>
@@ -4095,14 +4104,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4112,14 +4121,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>62</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4135,7 +4144,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4145,14 +4154,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4161,14 +4170,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4178,11 +4187,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>33</v>
@@ -4194,14 +4203,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4211,14 +4220,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4227,14 +4236,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4244,11 +4253,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4260,14 +4269,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4277,14 +4286,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4293,14 +4302,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4310,7 +4319,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4333,7 +4342,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4347,10 +4356,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4359,14 +4368,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4376,11 +4385,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4392,7 +4401,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4409,7 +4418,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4432,7 +4441,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4449,7 +4458,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4465,7 +4474,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4475,11 +4484,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>33</v>
@@ -4491,14 +4500,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4508,14 +4517,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4531,7 +4540,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4578,10 +4587,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>116</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4590,14 +4599,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4607,14 +4616,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>146</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4623,14 +4632,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4640,11 +4649,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4656,14 +4665,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4673,14 +4682,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4689,14 +4698,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4706,11 +4715,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>33</v>
@@ -4722,14 +4731,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4739,14 +4748,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4762,24 +4771,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>23</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>31</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4795,7 +4804,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>282</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4805,7 +4814,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>31</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4828,7 +4837,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>285</v>
+        <v>21</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4838,11 +4847,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>31</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4854,14 +4863,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4871,11 +4880,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4887,14 +4896,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>115</v>
+        <v>290</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4904,11 +4913,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4927,7 +4936,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4941,10 +4950,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>153</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>293</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4974,10 +4983,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>272</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>270</v>
+        <v>296</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4986,14 +4995,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5003,14 +5012,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>273</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5026,7 +5035,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5036,11 +5045,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5052,14 +5061,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5069,11 +5078,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5085,14 +5094,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5102,11 +5111,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5125,7 +5134,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>287</v>
+        <v>39</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5135,11 +5144,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5151,14 +5160,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>39</v>
+        <v>290</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5168,11 +5177,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5191,7 +5200,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>309</v>
+        <v>39</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5201,7 +5210,7 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>143</v>
+        <v>309</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
@@ -5224,7 +5233,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5234,7 +5243,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>312</v>
+        <v>146</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5245,38 +5254,71 @@
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>5429.4700000000003</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
         <v>314</v>
       </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>296</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>40</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
         <v>315</v>
       </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>316</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c t="s" r="Q118" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>5615.3900000000003</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>317</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>318</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>319</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5840,10 +5882,15 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -962,7 +962,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 9:38 PM</t>
+    <t>Thursday, 12 June, 2025 9:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3847,7 +3847,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3861,10 +3861,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -5288,7 +5288,7 @@
     </row>
     <row r="119" ht="25.5" customHeight="1">
       <c r="P119" s="13">
-        <v>5615.3900000000003</v>
+        <v>5638.3900000000003</v>
       </c>
       <c r="Q119" s="13"/>
     </row>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
     <t>BETASERC 16MG 60 TAB</t>
   </si>
   <si>
@@ -347,10 +356,7 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>11.8800</t>
+    <t>9:1</t>
   </si>
   <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
@@ -401,9 +407,6 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:1</t>
-  </si>
-  <si>
     <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
   </si>
   <si>
@@ -515,6 +518,12 @@
     <t>24.7500</t>
   </si>
   <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
     <t>IROSPECT 20 PIECES</t>
   </si>
   <si>
@@ -605,9 +614,6 @@
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>57.00</t>
-  </si>
-  <si>
     <t>57.0000</t>
   </si>
   <si>
@@ -962,7 +968,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 9:49 PM</t>
+    <t>Thursday, 12 June, 2025 9:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1834,7 +1840,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1867,13 +1873,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1884,7 +1890,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1906,7 +1912,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1933,7 +1939,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1950,7 +1956,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1966,7 +1972,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1983,7 +1989,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1999,13 +2005,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -2032,13 +2038,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -2049,7 +2055,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2058,14 +2064,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2075,14 +2081,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2091,14 +2097,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2108,14 +2114,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2131,7 +2137,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2141,14 +2147,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2164,13 +2170,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2181,7 +2187,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2197,24 +2203,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2223,14 +2229,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2247,7 +2253,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2256,14 +2262,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2273,14 +2279,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>88</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2296,7 +2302,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2306,14 +2312,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2322,14 +2328,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2339,14 +2345,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2355,14 +2361,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2395,7 +2401,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2428,7 +2434,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2461,7 +2467,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2494,7 +2500,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2511,7 +2517,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2527,7 +2533,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2537,14 +2543,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2553,14 +2559,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2570,14 +2576,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2593,7 +2599,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2603,14 +2609,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2619,14 +2625,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2636,11 +2642,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2652,14 +2658,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2669,14 +2675,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2685,14 +2691,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2702,14 +2708,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>126</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2725,7 +2731,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2735,11 +2741,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>33</v>
@@ -2758,7 +2764,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2768,7 +2774,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2791,7 +2797,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2801,11 +2807,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>33</v>
@@ -2817,14 +2823,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2834,11 +2840,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>33</v>
@@ -2850,14 +2856,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2867,14 +2873,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2883,14 +2889,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2900,14 +2906,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2916,14 +2922,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2933,14 +2939,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2949,14 +2955,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2966,14 +2972,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>124</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2982,14 +2988,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2999,14 +3005,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3015,7 +3021,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3032,11 +3038,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3048,14 +3054,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3065,14 +3071,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3081,14 +3087,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3098,14 +3104,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3114,14 +3120,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3131,11 +3137,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>33</v>
@@ -3147,14 +3153,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3164,11 +3170,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>33</v>
@@ -3180,14 +3186,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3197,11 +3203,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>33</v>
@@ -3213,14 +3219,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3230,14 +3236,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3246,14 +3252,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3263,14 +3269,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3279,14 +3285,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3296,14 +3302,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3312,14 +3318,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3333,10 +3339,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3345,14 +3351,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3362,14 +3368,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3378,14 +3384,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3395,11 +3401,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3411,31 +3417,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3444,14 +3450,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3461,14 +3467,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3477,31 +3483,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3510,14 +3516,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3527,14 +3533,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3543,14 +3549,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3560,14 +3566,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3576,14 +3582,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3593,14 +3599,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3616,7 +3622,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3626,14 +3632,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>124</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3642,7 +3648,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3659,14 +3665,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3675,14 +3681,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3692,14 +3698,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3708,14 +3714,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3725,11 +3731,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3748,7 +3754,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3758,11 +3764,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3774,7 +3780,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3791,11 +3797,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3807,14 +3813,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3824,11 +3830,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3840,7 +3846,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3857,14 +3863,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3873,31 +3879,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3906,7 +3912,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3923,14 +3929,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>33</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3939,31 +3945,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3972,14 +3978,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3989,14 +3995,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4022,11 +4028,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>33</v>
@@ -4038,14 +4044,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4055,11 +4061,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4071,14 +4077,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4088,11 +4094,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>33</v>
@@ -4104,7 +4110,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4121,14 +4127,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4137,14 +4143,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4154,14 +4160,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4170,14 +4176,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,11 +4193,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>65</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>33</v>
@@ -4203,14 +4209,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4220,14 +4226,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4236,14 +4242,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4253,14 +4259,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4269,14 +4275,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4286,14 +4292,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4302,14 +4308,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,14 +4325,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,14 +4341,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4352,14 +4358,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4368,14 +4374,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,14 +4391,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4401,14 +4407,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4418,14 +4424,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>163</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4434,14 +4440,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4451,11 +4457,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4467,14 +4473,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4484,14 +4490,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>164</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4500,14 +4506,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4517,14 +4523,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4533,7 +4539,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4550,14 +4556,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4566,14 +4572,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4583,14 +4589,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4599,14 +4605,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4616,14 +4622,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4632,14 +4638,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4649,11 +4655,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4665,14 +4671,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>273</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4682,14 +4688,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4698,14 +4704,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4715,14 +4721,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4731,14 +4737,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4748,14 +4754,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4764,14 +4770,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4781,14 +4787,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4797,31 +4803,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4830,31 +4836,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4863,14 +4869,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4884,7 +4890,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4896,14 +4902,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>290</v>
+        <v>21</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4913,11 +4919,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4929,14 +4935,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>118</v>
+        <v>290</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4946,11 +4952,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>31</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4962,14 +4968,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>39</v>
+        <v>292</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4979,14 +4985,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>296</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4995,14 +5001,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5012,14 +5018,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>273</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5028,14 +5034,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5045,14 +5051,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5061,7 +5067,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5078,14 +5084,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5094,14 +5100,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5111,11 +5117,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5144,11 +5150,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5160,14 +5166,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>290</v>
+        <v>21</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5177,11 +5183,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5193,7 +5199,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5210,11 +5216,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5226,14 +5232,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5243,11 +5249,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5259,14 +5265,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5276,49 +5282,115 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>313</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>314</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>40</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>147</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>316</v>
       </c>
-      <c t="s" r="Q118" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>5638.3900000000003</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>298</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>40</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
         <v>317</v>
       </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>318</v>
       </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c t="s" r="Q120" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>5696.3900000000003</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
         <v>319</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>320</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>321</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5887,10 +5959,20 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -80,162 +80,168 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 250MG 20 TAB</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATOMXAPEX 4MG/ML  SYRUP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>BETASERC 16MG 60 TAB</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>72.2700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>30.5000</t>
+  </si>
+  <si>
+    <t>BRONCHOPRO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>142.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>57.4200</t>
-  </si>
-  <si>
-    <t>AMBEZIM-G 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 250MG 20 TAB</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATOMXAPEX 4MG/ML  SYRUP</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>BETASERC 16MG 60 TAB</t>
-  </si>
-  <si>
-    <t>219.00</t>
-  </si>
-  <si>
-    <t>72.2700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
-  </si>
-  <si>
-    <t>30.50</t>
-  </si>
-  <si>
-    <t>30.5000</t>
-  </si>
-  <si>
-    <t>BRONCHOPRO 15MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 200MG 30 TAB</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
-  </si>
-  <si>
-    <t>142.00</t>
-  </si>
-  <si>
-    <t>142.0000</t>
-  </si>
-  <si>
-    <t>CARVID 6.25MG 30TAB</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>CATAFAST 50 MG 9 SACHET</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
     <t>CELEBORG 200 MG 20 CAPS.</t>
   </si>
   <si>
@@ -389,9 +395,6 @@
     <t>6.3000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -524,6 +527,15 @@
     <t>68.00</t>
   </si>
   <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>IROSPECT 20 PIECES</t>
   </si>
   <si>
@@ -617,6 +629,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>MIXDERM CREAM 15 GM</t>
   </si>
   <si>
@@ -680,6 +701,12 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>PAROFEN 30 OBLONG TAB.</t>
   </si>
   <si>
@@ -968,7 +995,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 9:52 PM</t>
+    <t>Thursday, 12 June, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1692,7 +1719,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1701,14 +1728,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1718,11 +1745,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1734,7 +1761,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1751,14 +1778,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1767,14 +1794,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1784,14 +1811,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1800,28 +1827,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1833,7 +1860,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1850,14 +1877,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1866,7 +1893,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1883,14 +1910,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1899,28 +1926,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1932,14 +1959,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1949,11 +1976,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1965,7 +1992,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1982,14 +2009,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1998,14 +2025,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2015,11 +2042,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -2031,28 +2058,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -2064,14 +2091,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2081,14 +2108,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2097,14 +2124,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2114,11 +2141,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -2130,14 +2157,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2147,14 +2174,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2163,14 +2190,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2180,14 +2207,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2196,28 +2223,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2229,14 +2256,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2246,14 +2273,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2262,14 +2289,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2279,14 +2306,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2295,14 +2322,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2312,11 +2339,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2328,14 +2355,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2345,14 +2372,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2361,14 +2388,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2378,11 +2405,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2394,14 +2421,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2411,11 +2438,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2427,14 +2454,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2444,11 +2471,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2460,14 +2487,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2477,11 +2504,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2493,7 +2520,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2510,11 +2537,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2526,14 +2553,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2543,14 +2570,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2559,14 +2586,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2592,14 +2619,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2625,14 +2652,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2642,11 +2669,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2658,14 +2685,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2675,11 +2702,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2691,14 +2718,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2708,14 +2735,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2724,7 +2751,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2741,14 +2768,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2757,14 +2784,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2774,14 +2801,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2790,14 +2817,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2807,14 +2834,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2823,7 +2850,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2840,14 +2867,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2856,7 +2883,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2873,14 +2900,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2889,14 +2916,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2906,11 +2933,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2922,14 +2949,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2939,11 +2966,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2955,14 +2982,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2972,14 +2999,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2988,7 +3015,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3005,14 +3032,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3021,14 +3048,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3038,11 +3065,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3054,14 +3081,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3071,11 +3098,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3087,7 +3114,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3104,14 +3131,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3120,14 +3147,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3137,14 +3164,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3153,14 +3180,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3170,14 +3197,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3186,7 +3213,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3203,14 +3230,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3219,14 +3246,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3236,14 +3263,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>20</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3252,31 +3279,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3285,14 +3312,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3302,14 +3329,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3318,14 +3345,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3335,14 +3362,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3351,14 +3378,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3368,14 +3395,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3391,7 +3418,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3401,14 +3428,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3417,14 +3444,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3434,14 +3461,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3450,14 +3477,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3467,14 +3494,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3483,28 +3510,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3516,7 +3543,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3529,18 +3556,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3549,14 +3576,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3566,14 +3593,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3582,14 +3609,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3599,14 +3626,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3615,14 +3642,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3632,14 +3659,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3648,14 +3675,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3665,14 +3692,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3681,14 +3708,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3698,14 +3725,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3714,14 +3741,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3731,14 +3758,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3747,14 +3774,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3764,14 +3791,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3780,14 +3807,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3797,11 +3824,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3813,14 +3840,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3830,11 +3857,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3846,7 +3873,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3863,11 +3890,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3879,14 +3906,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3896,11 +3923,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3912,7 +3939,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3929,14 +3956,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3945,31 +3972,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>117</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3978,7 +4005,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3995,14 +4022,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4011,31 +4038,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4044,14 +4071,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4061,14 +4088,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4077,14 +4104,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4094,14 +4121,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>92</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4110,14 +4137,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4127,14 +4154,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>92</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4143,14 +4170,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4160,14 +4187,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4176,14 +4203,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4193,14 +4220,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>65</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4209,14 +4236,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4226,11 +4253,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4242,14 +4269,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4259,14 +4286,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4275,14 +4302,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4292,14 +4319,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4308,14 +4335,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4325,11 +4352,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4341,14 +4368,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4358,14 +4385,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4374,14 +4401,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4391,14 +4418,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4407,14 +4434,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4424,14 +4451,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4440,14 +4467,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4457,11 +4484,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4473,7 +4500,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4490,14 +4517,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4506,14 +4533,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4523,14 +4550,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4539,14 +4566,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4556,14 +4583,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4572,14 +4599,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4589,14 +4616,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4605,14 +4632,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4622,11 +4649,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4638,14 +4665,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4655,14 +4682,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4671,14 +4698,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4688,14 +4715,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4704,14 +4731,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4721,11 +4748,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>151</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4737,14 +4764,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>275</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4754,11 +4781,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4770,14 +4797,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4787,14 +4814,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4803,14 +4830,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4820,14 +4847,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>279</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4836,14 +4863,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>284</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4853,14 +4880,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4869,31 +4896,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>284</v>
+        <v>28</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4902,31 +4929,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4942,24 +4969,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>31</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4968,28 +4995,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5001,28 +5028,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5034,31 +5061,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>39</v>
+        <v>299</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>297</v>
+        <v>32</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>157</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>298</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5067,31 +5094,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>39</v>
+        <v>301</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5100,28 +5127,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5133,31 +5160,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>288</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>307</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5166,31 +5193,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5199,28 +5226,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5232,28 +5259,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>292</v>
+        <v>40</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5265,20 +5292,20 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
@@ -5298,28 +5325,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>147</v>
+        <v>316</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5331,66 +5358,165 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>5696.3900000000003</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
         <v>319</v>
       </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>40</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>41</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
         <v>320</v>
       </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>321</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c t="s" r="Q121" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>322</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>323</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>41</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>148</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>325</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>307</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>41</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>326</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>6041.1000000000004</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>328</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>329</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>330</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5969,10 +6095,25 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -410,6 +410,12 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
     <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
   </si>
   <si>
@@ -479,6 +485,24 @@
     <t>31.5000</t>
   </si>
   <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FORTUM 1 GM VIAL.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -797,6 +821,15 @@
     <t>40.5900</t>
   </si>
   <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>T4-THYRO 100MCG 100 TABLETS</t>
   </si>
   <si>
@@ -842,6 +875,9 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
     <t>TRIACTIN 2MG/5ML 120ML SYRUP</t>
   </si>
   <si>
@@ -869,9 +905,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -914,88 +947,85 @@
     <t>راجون احمر 250 مل</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>سائل ريد</t>
   </si>
   <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>شراب تحت الركبه XXL</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>لزقه النمر بسعر القطعه</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مناديل جيب مبلله </t>
+  </si>
+  <si>
     <t>22:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>شامبو جونسون 100 مل</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>شراب تحت الركبه XXL</t>
-  </si>
-  <si>
-    <t>شمع حريمي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>لزقه النمر بسعر القطعه</t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مناديل جيب مبلله </t>
-  </si>
-  <si>
     <t>6.00</t>
   </si>
   <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 9:55 PM</t>
+    <t>Thursday, 12 June, 2025 10:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2824,7 +2854,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2838,10 +2868,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2850,14 +2880,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2867,14 +2897,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2890,7 +2920,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2904,7 +2934,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>34</v>
@@ -2916,14 +2946,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2933,14 +2963,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2949,14 +2979,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2966,14 +2996,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2982,14 +3012,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2999,14 +3029,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3022,7 +3052,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3032,14 +3062,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3048,14 +3078,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3065,14 +3095,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3081,7 +3111,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3098,11 +3128,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3114,14 +3144,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3131,14 +3161,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3147,14 +3177,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3164,11 +3194,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>34</v>
@@ -3180,14 +3210,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3197,14 +3227,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3213,7 +3243,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3230,14 +3260,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3246,14 +3276,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3263,11 +3293,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>34</v>
@@ -3279,20 +3309,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3303,7 +3333,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3319,7 +3349,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3352,7 +3382,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3366,10 +3396,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3378,31 +3408,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3418,7 +3448,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3428,14 +3458,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3444,14 +3474,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3461,7 +3491,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3484,7 +3514,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3494,14 +3524,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3510,14 +3540,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3534,7 +3564,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3550,21 +3580,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3576,14 +3606,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3593,11 +3623,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>34</v>
@@ -3609,7 +3639,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3626,14 +3656,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3642,24 +3672,24 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3699,7 +3729,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3715,7 +3745,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3725,14 +3755,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3741,14 +3771,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3758,14 +3788,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3774,14 +3804,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3791,14 +3821,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3807,14 +3837,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3824,14 +3854,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3840,14 +3870,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3857,14 +3887,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3873,14 +3903,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3890,14 +3920,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>57</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3906,14 +3936,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3923,11 +3953,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3939,7 +3969,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3956,11 +3986,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3972,7 +4002,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3989,11 +4019,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>57</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4005,14 +4035,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4022,14 +4052,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4038,31 +4068,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4078,7 +4108,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4088,14 +4118,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4104,7 +4134,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4121,14 +4151,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>92</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4137,31 +4167,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4170,14 +4200,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4187,14 +4217,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4203,14 +4233,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4220,11 +4250,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>92</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>34</v>
@@ -4236,14 +4266,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4253,14 +4283,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4269,14 +4299,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4286,14 +4316,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4302,14 +4332,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4319,11 +4349,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>66</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>34</v>
@@ -4342,7 +4372,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4375,7 +4405,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4385,11 +4415,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>34</v>
@@ -4401,14 +4431,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4418,11 +4448,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>34</v>
@@ -4434,14 +4464,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4451,11 +4481,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4467,14 +4497,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4484,14 +4514,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4500,14 +4530,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4517,11 +4547,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>34</v>
@@ -4533,14 +4563,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4550,14 +4580,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>126</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4566,7 +4596,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4583,11 +4613,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>238</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4599,7 +4629,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4616,14 +4646,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4632,14 +4662,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4649,14 +4679,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4665,14 +4695,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4682,14 +4712,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4698,14 +4728,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4715,14 +4745,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4731,14 +4761,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4748,7 +4778,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4804,7 +4834,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4818,7 +4848,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>123</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>34</v>
@@ -4830,14 +4860,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4847,14 +4877,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>152</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4863,14 +4893,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4880,11 +4910,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>219</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4896,14 +4926,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4913,14 +4943,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4929,14 +4959,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4946,14 +4976,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4962,14 +4992,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4979,14 +5009,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4995,28 +5025,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>293</v>
+        <v>70</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>294</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5035,21 +5065,21 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>296</v>
+        <v>227</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5061,28 +5091,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>299</v>
+        <v>21</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>294</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5094,31 +5124,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>82</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5127,31 +5157,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5160,14 +5190,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5177,14 +5207,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>32</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>158</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>307</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5193,14 +5223,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5210,14 +5240,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5226,14 +5256,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5243,11 +5273,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>311</v>
+        <v>32</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5259,14 +5289,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5276,11 +5306,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5292,14 +5322,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5309,11 +5339,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5325,7 +5355,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5342,14 +5372,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>21</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5358,14 +5388,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5375,14 +5405,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5391,14 +5421,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5408,11 +5438,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5424,14 +5454,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5441,11 +5471,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>148</v>
+        <v>307</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5457,14 +5487,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>307</v>
+        <v>21</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5474,49 +5504,214 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>325</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>40</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>41</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>326</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>327</v>
       </c>
-      <c t="s" r="Q123" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>6041.1000000000004</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
+      <c t="s" r="Q124" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>328</v>
       </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>74</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>41</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>326</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>329</v>
       </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>40</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>41</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
         <v>330</v>
       </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>331</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>332</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>333</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>41</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>150</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>319</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>334</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>335</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>41</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>336</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>337</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>6428.9399999999996</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>338</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>339</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>340</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6110,10 +6305,35 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -1025,7 +1025,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 10:05 PM</t>
+    <t>Thursday, 12 June, 2025 10:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -929,6 +929,9 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>الو ايفا زيت 300مل</t>
+  </si>
+  <si>
     <t xml:space="preserve">بخاخ ريد الكبير </t>
   </si>
   <si>
@@ -1025,7 +1028,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 10:08 PM</t>
+    <t>Thursday, 12 June, 2025 10:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5240,11 +5243,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5256,14 +5259,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>310</v>
+        <v>21</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5273,11 +5276,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5289,14 +5292,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>133</v>
+        <v>311</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5306,11 +5309,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>82</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5329,7 +5332,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5339,11 +5342,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5362,7 +5365,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5372,14 +5375,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>316</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5388,7 +5391,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5405,14 +5408,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>84</v>
+        <v>317</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5421,14 +5424,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5438,14 +5441,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5454,14 +5457,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5471,11 +5474,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5494,7 +5497,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5504,11 +5507,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5527,7 +5530,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5537,11 +5540,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5553,14 +5556,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5570,14 +5573,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>64</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5593,7 +5596,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5603,14 +5606,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>331</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5619,14 +5622,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5636,11 +5639,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>150</v>
+        <v>331</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>21</v>
@@ -5652,14 +5655,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5669,49 +5672,82 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>336</v>
+        <v>150</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>335</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>336</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>41</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
         <v>337</v>
       </c>
-      <c t="s" r="Q128" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>6428.9399999999996</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
         <v>338</v>
       </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
+      <c t="s" r="Q129" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>6508.9399999999996</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
         <v>339</v>
       </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
         <v>340</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>341</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6330,10 +6366,15 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -1028,7 +1028,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 10:23 PM</t>
+    <t>Thursday, 12 June, 2025 10:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -602,6 +602,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -614,12 +623,6 @@
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
     <t>LUBRISTIRA 15ML EYE DROPS</t>
   </si>
   <si>
@@ -731,6 +734,9 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
     <t>PAROFEN 30 OBLONG TAB.</t>
   </si>
   <si>
@@ -909,6 +915,12 @@
   </si>
   <si>
     <t>14.4000</t>
+  </si>
+  <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.0000</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -3616,7 +3628,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3633,7 +3645,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3649,7 +3661,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3666,7 +3678,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3682,21 +3694,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3708,7 +3720,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3721,18 +3733,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3741,14 +3753,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3758,11 +3770,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>34</v>
@@ -3774,14 +3786,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3791,14 +3803,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3807,14 +3819,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3824,11 +3836,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3840,14 +3852,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3857,14 +3869,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3880,7 +3892,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3890,14 +3902,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3913,7 +3925,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3923,14 +3935,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3939,14 +3951,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3956,14 +3968,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3972,14 +3984,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3989,11 +4001,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -4022,11 +4034,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4045,7 +4057,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4055,11 +4067,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4071,14 +4083,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4088,11 +4100,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>57</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4121,11 +4133,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4137,7 +4149,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4154,14 +4166,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>93</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4170,31 +4182,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4203,31 +4215,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>28</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4236,14 +4248,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4253,11 +4265,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>34</v>
@@ -4269,14 +4281,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4286,14 +4298,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4302,14 +4314,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4319,14 +4331,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4352,11 +4364,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>92</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>34</v>
@@ -4368,14 +4380,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4385,11 +4397,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4401,14 +4413,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>28</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4418,11 +4430,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>34</v>
@@ -4434,7 +4446,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4451,14 +4463,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4467,14 +4479,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4484,14 +4496,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4500,14 +4512,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4517,11 +4529,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>252</v>
+        <v>66</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>34</v>
@@ -4533,14 +4545,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4550,14 +4562,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4566,14 +4578,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4583,14 +4595,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4599,14 +4611,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4616,14 +4628,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4632,14 +4644,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4649,14 +4661,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4665,14 +4677,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4682,14 +4694,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>42</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4698,7 +4710,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4715,14 +4727,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4731,14 +4743,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4748,14 +4760,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4764,7 +4776,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4781,11 +4793,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4797,14 +4809,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4814,11 +4826,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4830,14 +4842,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4847,14 +4859,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>173</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4863,14 +4875,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4880,14 +4892,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4896,7 +4908,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4913,14 +4925,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4929,14 +4941,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4946,14 +4958,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>123</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4962,14 +4974,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4979,11 +4991,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4995,7 +5007,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5012,14 +5024,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>85</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5028,14 +5040,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5045,11 +5057,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>154</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5061,14 +5073,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>296</v>
+        <v>21</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5078,14 +5090,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>227</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5094,14 +5106,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5111,11 +5123,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5127,14 +5139,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5144,14 +5156,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5160,14 +5172,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5177,14 +5189,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>302</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5193,31 +5205,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5226,28 +5238,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>188</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5259,31 +5271,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5292,14 +5304,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5313,7 +5325,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5325,14 +5337,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5342,11 +5354,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5358,14 +5370,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5375,11 +5387,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5398,7 +5410,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5408,14 +5420,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>315</v>
+        <v>32</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>317</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5424,14 +5436,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5441,14 +5453,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5457,14 +5469,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5474,11 +5486,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5490,7 +5502,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5507,14 +5519,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>21</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5523,14 +5535,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5540,14 +5552,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5556,14 +5568,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5573,11 +5585,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5589,14 +5601,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5606,14 +5618,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>64</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5622,14 +5634,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5639,11 +5651,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>21</v>
@@ -5655,14 +5667,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>334</v>
+        <v>40</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5672,11 +5684,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>150</v>
+        <v>331</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>21</v>
@@ -5688,14 +5700,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>336</v>
+        <v>74</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5705,49 +5717,148 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>334</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>40</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>41</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>335</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>336</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>337</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
         <v>338</v>
       </c>
-      <c t="s" r="Q129" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>6508.9399999999996</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>41</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>150</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>339</v>
       </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
         <v>340</v>
       </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>41</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
         <v>341</v>
       </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>342</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>6800.9399999999996</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>343</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>344</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>345</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6371,10 +6482,25 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -503,6 +503,9 @@
     <t>106.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -803,6 +806,18 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -971,10 +986,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>26:0</t>
+    <t>27:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -986,6 +998,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>شاش 10 سم</t>
+  </si>
+  <si>
+    <t>51:0</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>شامبو جونسون 100 مل</t>
   </si>
   <si>
@@ -1016,12 +1040,6 @@
     <t>مجموعه برد</t>
   </si>
   <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -1040,7 +1058,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 10:24 PM</t>
+    <t>Thursday, 12 June, 2025 10:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3275,14 +3293,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3291,14 +3309,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3308,14 +3326,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3324,14 +3342,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3341,11 +3359,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>34</v>
@@ -3357,14 +3375,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3374,11 +3392,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>34</v>
@@ -3390,14 +3408,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3407,11 +3425,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>34</v>
@@ -3423,31 +3441,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3456,31 +3474,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3489,14 +3507,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3506,14 +3524,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3522,14 +3540,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3539,14 +3557,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3555,14 +3573,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3572,14 +3590,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3588,14 +3606,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3605,14 +3623,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3621,14 +3639,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3638,11 +3656,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3654,14 +3672,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3671,14 +3689,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3687,14 +3705,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3704,14 +3722,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3727,21 +3745,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3753,7 +3771,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3766,18 +3784,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3786,14 +3804,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3803,11 +3821,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>34</v>
@@ -3819,14 +3837,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3836,14 +3854,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3852,14 +3870,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3869,11 +3887,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3885,14 +3903,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3902,14 +3920,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3925,7 +3943,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3935,14 +3953,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3958,7 +3976,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3968,14 +3986,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3984,14 +4002,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4001,14 +4019,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4017,14 +4035,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4034,11 +4052,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4067,11 +4085,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4090,7 +4108,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4100,11 +4118,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>57</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4116,14 +4134,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4133,11 +4151,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4166,11 +4184,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4182,7 +4200,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4199,14 +4217,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4215,31 +4233,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>119</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4248,31 +4266,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4281,14 +4299,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4298,14 +4316,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4321,7 +4339,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4331,14 +4349,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4347,14 +4365,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4368,7 +4386,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>34</v>
@@ -4387,7 +4405,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4397,14 +4415,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4420,7 +4438,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4430,14 +4448,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4446,14 +4464,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4463,14 +4481,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4479,14 +4497,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>253</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4496,14 +4514,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4512,14 +4530,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4529,11 +4547,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>66</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>34</v>
@@ -4552,7 +4570,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4562,14 +4580,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>66</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4578,14 +4596,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4595,14 +4613,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4611,14 +4629,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4628,11 +4646,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>34</v>
@@ -4644,14 +4662,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4661,14 +4679,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4677,14 +4695,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4694,14 +4712,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>43</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4710,14 +4728,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4727,14 +4745,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4743,14 +4761,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4760,14 +4778,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4793,14 +4811,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>199</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4809,14 +4827,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4826,14 +4844,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4859,11 +4877,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4875,14 +4893,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4892,11 +4910,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4915,7 +4933,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4925,14 +4943,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>174</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4941,14 +4959,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4958,14 +4976,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4998,7 +5016,7 @@
         <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5014,7 +5032,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5024,14 +5042,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5040,14 +5058,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5057,11 +5075,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5073,7 +5091,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5090,14 +5108,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>85</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5113,7 +5131,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5123,11 +5141,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>153</v>
+        <v>297</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>154</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5139,14 +5157,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>298</v>
+        <v>21</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5156,14 +5174,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>228</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5172,14 +5190,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5189,11 +5207,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5205,14 +5223,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5222,14 +5240,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>301</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5238,14 +5256,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5255,11 +5273,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>303</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5271,14 +5289,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5288,14 +5306,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>305</v>
+        <v>42</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
         <v>306</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5311,21 +5329,21 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5337,31 +5355,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>187</v>
+        <v>310</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5370,14 +5388,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>21</v>
+        <v>313</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5387,11 +5405,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>312</v>
+        <v>32</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5403,14 +5421,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>315</v>
+        <v>21</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5420,11 +5438,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>309</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5443,7 +5461,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5453,11 +5471,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5469,14 +5487,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>122</v>
+        <v>320</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5486,11 +5504,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5502,14 +5520,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5519,14 +5537,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>321</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5542,7 +5560,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5552,14 +5570,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5568,14 +5586,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5585,14 +5603,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>327</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>21</v>
+        <v>325</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5601,7 +5619,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5618,14 +5636,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5641,7 +5659,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>21</v>
+        <v>330</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5651,11 +5669,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>21</v>
@@ -5667,14 +5685,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5684,11 +5702,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>21</v>
@@ -5700,14 +5718,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5717,14 +5735,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>64</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5733,14 +5751,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5750,11 +5768,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>21</v>
@@ -5766,14 +5784,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>338</v>
+        <v>40</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5783,11 +5801,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>150</v>
+        <v>339</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>21</v>
@@ -5799,14 +5817,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5816,49 +5834,148 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
         <v>342</v>
       </c>
-      <c t="s" r="Q132" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>6800.9399999999996</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>40</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>41</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>331</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>332</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
         <v>343</v>
       </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
         <v>344</v>
       </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>41</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>150</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
         <v>345</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>346</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>41</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>347</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>348</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>6858.8100000000004</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>349</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>350</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>351</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6497,10 +6614,25 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -1058,7 +1058,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 10:26 PM</t>
+    <t>Thursday, 12 June, 2025 10:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -320,6 +320,15 @@
     <t>98.0000</t>
   </si>
   <si>
+    <t>DALACIN C 300MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>DAPAGLIF 10MG 14 F.C. TABS</t>
   </si>
   <si>
@@ -425,9 +434,6 @@
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>114.00</t>
-  </si>
-  <si>
     <t>37.6200</t>
   </si>
   <si>
@@ -503,6 +509,15 @@
     <t>106.0000</t>
   </si>
   <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -1058,7 +1073,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 10:39 PM</t>
+    <t>Thursday, 12 June, 2025 10:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2524,7 +2539,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2557,7 +2572,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2590,7 +2605,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2623,7 +2638,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2640,7 +2655,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2656,7 +2671,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2666,14 +2681,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2682,14 +2697,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2699,14 +2714,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2715,14 +2730,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2732,14 +2747,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2755,7 +2770,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2765,7 +2780,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2798,14 +2813,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2814,14 +2829,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2831,14 +2846,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2847,14 +2862,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2864,11 +2879,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>34</v>
@@ -2880,14 +2895,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2897,14 +2912,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2913,14 +2928,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2930,14 +2945,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2946,14 +2961,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2963,14 +2978,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2979,14 +2994,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2996,11 +3011,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>34</v>
@@ -3019,7 +3034,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3029,14 +3044,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3045,14 +3060,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3062,14 +3077,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3078,14 +3093,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3095,14 +3110,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3118,7 +3133,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3128,14 +3143,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3144,14 +3159,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3161,14 +3176,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3177,7 +3192,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3194,11 +3209,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3210,14 +3225,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3227,14 +3242,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3243,14 +3258,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3260,14 +3275,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3276,14 +3291,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3293,11 +3308,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3309,14 +3324,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3326,14 +3341,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3342,14 +3357,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3359,14 +3374,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3375,14 +3390,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3392,14 +3407,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3408,14 +3423,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3425,11 +3440,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>34</v>
@@ -3441,14 +3456,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3458,11 +3473,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>34</v>
@@ -3481,13 +3496,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3498,7 +3513,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3528,7 +3543,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>34</v>
@@ -3540,7 +3555,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3553,15 +3568,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3573,14 +3588,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3590,14 +3605,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3613,7 +3628,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3623,14 +3638,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3639,14 +3654,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3660,10 +3675,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3672,14 +3687,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3696,7 +3711,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3712,7 +3727,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3722,14 +3737,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3738,14 +3753,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3755,11 +3770,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3771,31 +3786,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3804,14 +3819,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3821,14 +3836,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3837,31 +3852,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3870,14 +3885,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3887,14 +3902,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3910,7 +3925,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3927,7 +3942,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3943,7 +3958,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3953,14 +3968,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3969,14 +3984,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3986,14 +4001,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4002,14 +4017,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4019,14 +4034,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4035,7 +4050,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4052,14 +4067,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4075,7 +4090,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4085,14 +4100,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4101,14 +4116,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4118,11 +4133,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4134,14 +4149,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4151,11 +4166,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4167,7 +4182,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4188,7 +4203,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4200,14 +4215,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4217,11 +4232,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4233,7 +4248,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4250,14 +4265,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>57</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4273,24 +4288,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4306,7 +4321,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4316,14 +4331,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4339,24 +4354,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>102</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4365,14 +4380,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4382,11 +4397,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>34</v>
@@ -4398,14 +4413,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4415,14 +4430,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4431,14 +4446,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4448,14 +4463,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>82</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4464,7 +4479,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4481,7 +4496,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>92</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4497,14 +4512,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4514,11 +4529,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4530,14 +4545,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>28</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4547,11 +4562,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>34</v>
@@ -4563,7 +4578,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4580,14 +4595,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>66</v>
+        <v>256</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4603,7 +4618,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4613,14 +4628,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4629,14 +4644,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4646,11 +4661,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>255</v>
+        <v>66</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>34</v>
@@ -4669,7 +4684,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4679,14 +4694,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4695,14 +4710,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4712,11 +4727,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>34</v>
@@ -4728,14 +4743,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4745,14 +4760,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4761,14 +4776,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>40</v>
+        <v>271</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4778,14 +4793,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>42</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4794,14 +4809,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4811,14 +4826,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4827,14 +4842,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4844,14 +4859,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>276</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4877,14 +4892,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4893,14 +4908,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4910,14 +4925,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4943,11 +4958,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4959,14 +4974,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4976,11 +4991,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4999,7 +5014,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5009,14 +5024,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>179</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5025,14 +5040,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5042,14 +5057,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5082,7 +5097,7 @@
         <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5098,7 +5113,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5108,14 +5123,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>123</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5124,14 +5139,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5141,11 +5156,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5157,7 +5172,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5174,14 +5189,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5197,7 +5212,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5207,11 +5222,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>153</v>
+        <v>302</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>154</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5223,14 +5238,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>303</v>
+        <v>21</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5240,14 +5255,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5256,14 +5271,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5273,11 +5288,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5289,14 +5304,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5306,14 +5321,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>306</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5322,14 +5337,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5339,11 +5354,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>308</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5355,14 +5370,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5372,14 +5387,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>310</v>
+        <v>42</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
         <v>311</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5395,21 +5410,21 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5421,31 +5436,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>188</v>
+        <v>315</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>189</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5454,14 +5469,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5471,11 +5486,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>317</v>
+        <v>32</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5487,14 +5502,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>320</v>
+        <v>21</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5504,11 +5519,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>314</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5527,7 +5542,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5537,11 +5552,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5553,14 +5568,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>122</v>
+        <v>325</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5570,11 +5585,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>278</v>
+        <v>32</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5586,14 +5601,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5603,14 +5618,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>239</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>325</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5619,14 +5634,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5636,14 +5651,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5652,14 +5667,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5669,14 +5684,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>21</v>
+        <v>330</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5685,14 +5700,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5702,14 +5717,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5718,14 +5733,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5735,11 +5750,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>21</v>
@@ -5751,14 +5766,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5768,11 +5783,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>21</v>
@@ -5784,7 +5799,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5801,11 +5816,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>21</v>
@@ -5817,14 +5832,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5838,10 +5853,10 @@
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>64</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5850,7 +5865,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5867,11 +5882,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>21</v>
@@ -5883,14 +5898,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>344</v>
+        <v>74</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5900,14 +5915,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>150</v>
+        <v>344</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>328</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5916,14 +5931,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>346</v>
+        <v>40</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5933,49 +5948,115 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
+        <v>337</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
         <v>348</v>
       </c>
-      <c t="s" r="Q135" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>6858.8100000000004</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
         <v>349</v>
       </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>41</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>152</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
         <v>350</v>
       </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
         <v>351</v>
       </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>41</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>352</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>353</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>7019.8100000000004</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>354</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>355</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>356</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6629,10 +6710,20 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -1073,7 +1073,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 10:40 PM</t>
+    <t>Thursday, 12 June, 2025 10:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -311,6 +311,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>CYSTONE 60 TAB</t>
   </si>
   <si>
@@ -869,9 +878,6 @@
     <t>T4-THYRO 100MCG 100 TABLETS</t>
   </si>
   <si>
-    <t>58.00</t>
-  </si>
-  <si>
     <t>TAVANIC 500MG 5 TAB</t>
   </si>
   <si>
@@ -1049,6 +1055,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>كريم فاتيكا 125 مل</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>لزقه النمر بسعر القطعه</t>
   </si>
   <si>
@@ -1061,6 +1073,9 @@
     <t>17:0</t>
   </si>
   <si>
+    <t>مرهم اكتيول اسود</t>
+  </si>
+  <si>
     <t xml:space="preserve">مناديل جيب مبلله </t>
   </si>
   <si>
@@ -1073,7 +1088,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 10:42 PM</t>
+    <t>Thursday, 12 June, 2025 10:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2506,7 +2521,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2523,7 +2538,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2539,7 +2554,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2572,7 +2587,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2605,7 +2620,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2638,7 +2653,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2671,7 +2686,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2688,7 +2703,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2704,7 +2719,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2714,14 +2729,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2730,14 +2745,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2747,14 +2762,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2763,14 +2778,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2780,14 +2795,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2803,7 +2818,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2813,7 +2828,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2846,14 +2861,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2862,14 +2877,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2879,14 +2894,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2895,14 +2910,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2912,11 +2927,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>34</v>
@@ -2928,14 +2943,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2945,14 +2960,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2961,14 +2976,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2978,14 +2993,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2994,14 +3009,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3011,14 +3026,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3027,14 +3042,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3044,11 +3059,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>34</v>
@@ -3060,14 +3075,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3077,14 +3092,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3093,14 +3108,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3117,7 +3132,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3133,7 +3148,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3143,14 +3158,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3159,14 +3174,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3176,14 +3191,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3199,7 +3214,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3216,7 +3231,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3265,7 +3280,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3282,7 +3297,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3298,7 +3313,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3315,7 +3330,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3331,7 +3346,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3364,7 +3379,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3374,11 +3389,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3390,7 +3405,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3407,14 +3422,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3430,7 +3445,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3440,14 +3455,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3456,14 +3471,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3473,11 +3488,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>34</v>
@@ -3489,14 +3504,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3529,7 +3544,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3543,7 +3558,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>34</v>
@@ -3555,31 +3570,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3595,13 +3610,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3612,7 +3627,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3628,7 +3643,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3645,7 +3660,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3661,7 +3676,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3671,14 +3686,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3687,14 +3702,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3704,14 +3719,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3720,14 +3735,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3737,14 +3752,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3753,14 +3768,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3770,7 +3785,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3793,7 +3808,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3810,7 +3825,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3826,7 +3841,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3836,14 +3851,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3852,28 +3867,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3898,7 +3913,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3909,7 +3924,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3925,7 +3940,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3958,7 +3973,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3968,14 +3983,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3984,14 +3999,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4001,7 +4016,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -4024,7 +4039,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4034,14 +4049,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4050,14 +4065,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4067,14 +4082,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4083,14 +4098,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4100,14 +4115,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4116,14 +4131,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4133,14 +4148,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4156,7 +4171,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4166,11 +4181,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4182,7 +4197,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4199,11 +4214,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4215,14 +4230,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4232,11 +4247,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4255,7 +4270,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4265,11 +4280,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4281,7 +4296,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4298,11 +4313,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4335,10 +4350,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4347,31 +4362,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4387,24 +4402,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4413,14 +4428,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4430,14 +4445,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>102</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4446,14 +4461,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4463,14 +4478,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4479,14 +4494,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4500,7 +4515,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>34</v>
@@ -4512,14 +4527,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4529,14 +4544,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>82</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4545,14 +4560,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4562,14 +4577,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4585,7 +4600,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4602,7 +4617,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4618,7 +4633,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4628,14 +4643,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4644,14 +4659,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4661,11 +4676,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>66</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>34</v>
@@ -4677,14 +4692,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4694,14 +4709,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4717,7 +4732,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4727,14 +4742,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4743,14 +4758,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4760,11 +4775,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>34</v>
@@ -4776,14 +4791,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4793,11 +4808,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>34</v>
@@ -4809,14 +4824,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4826,14 +4841,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>129</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4842,14 +4857,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4859,11 +4874,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>43</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4875,14 +4890,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4892,14 +4907,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>278</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4908,14 +4923,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4925,7 +4940,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4948,7 +4963,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4965,7 +4980,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4981,7 +4996,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4995,7 +5010,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -5007,14 +5022,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5024,11 +5039,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -5057,11 +5072,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>182</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -5073,14 +5088,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5090,14 +5105,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5106,14 +5121,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5123,7 +5138,7 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
@@ -5146,7 +5161,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5156,14 +5171,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>298</v>
+        <v>232</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5172,14 +5187,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5189,11 +5204,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5205,7 +5220,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5222,11 +5237,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>302</v>
+        <v>85</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>303</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5238,7 +5253,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5255,14 +5270,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>126</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5278,7 +5293,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5288,14 +5303,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5304,14 +5319,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>308</v>
+        <v>70</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5321,11 +5336,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>234</v>
+        <v>158</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5344,7 +5359,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5354,11 +5369,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5370,14 +5385,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5387,14 +5402,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>311</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5410,7 +5425,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5420,14 +5435,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>313</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5443,7 +5458,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5453,14 +5468,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>315</v>
+        <v>188</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5469,31 +5484,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>32</v>
+        <v>317</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5502,14 +5517,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>21</v>
+        <v>320</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5519,11 +5534,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>194</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5535,7 +5550,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5552,11 +5567,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>322</v>
+        <v>196</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>323</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5568,14 +5583,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>325</v>
+        <v>21</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5585,11 +5600,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>32</v>
+        <v>324</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5608,7 +5623,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5618,11 +5633,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5634,14 +5649,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5651,11 +5666,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>21</v>
@@ -5667,14 +5682,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5684,14 +5699,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>330</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5700,7 +5715,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5717,14 +5732,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>333</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>84</v>
+        <v>332</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5733,14 +5748,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>335</v>
+        <v>40</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5750,14 +5765,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5766,14 +5781,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>70</v>
+        <v>337</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5783,11 +5798,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>21</v>
@@ -5799,14 +5814,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5816,11 +5831,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>21</v>
@@ -5832,14 +5847,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5849,11 +5864,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>21</v>
@@ -5865,14 +5880,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5882,11 +5897,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>21</v>
@@ -5898,14 +5913,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5915,14 +5930,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>64</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5931,14 +5946,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5948,11 +5963,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>336</v>
+        <v>202</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>21</v>
@@ -5964,14 +5979,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5981,14 +5996,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>152</v>
+        <v>346</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>333</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -5997,14 +6012,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6014,49 +6029,148 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>352</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
         <v>353</v>
       </c>
-      <c t="s" r="Q137" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>7019.8100000000004</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>41</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>155</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>335</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
         <v>354</v>
       </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>128</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>41</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>338</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
         <v>355</v>
       </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
         <v>356</v>
       </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>41</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>357</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>358</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="P141" s="13">
+        <v>7116.8100000000004</v>
+      </c>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="14">
+        <v>359</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c t="s" r="G142" s="15">
+        <v>360</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c t="s" r="K142" s="17">
+        <v>361</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="682">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6720,10 +6834,25 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="K142:Q142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -1088,7 +1088,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 10:49 PM</t>
+    <t>Thursday, 12 June, 2025 10:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ALKAPRESS 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>34.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -386,12 +395,6 @@
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -1088,7 +1091,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 10:53 PM</t>
+    <t>Thursday, 12 June, 2025 10:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1762,7 +1765,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1772,14 +1775,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1788,14 +1791,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1805,14 +1808,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1821,14 +1824,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1838,14 +1841,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1854,14 +1857,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1878,7 +1881,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1887,14 +1890,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1904,14 +1907,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1920,31 +1923,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1953,20 +1956,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1977,7 +1980,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1993,7 +1996,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2010,7 +2013,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2026,13 +2029,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -2043,7 +2046,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2059,13 +2062,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -2076,7 +2079,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2092,7 +2095,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2109,7 +2112,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2125,7 +2128,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2142,7 +2145,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2158,13 +2161,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -2175,7 +2178,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2191,13 +2194,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2208,7 +2211,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2217,14 +2220,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2234,14 +2237,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2250,14 +2253,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2267,14 +2270,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2283,14 +2286,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2304,10 +2307,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>79</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2323,13 +2326,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2340,7 +2343,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2356,24 +2359,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2382,14 +2385,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2406,7 +2409,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2415,14 +2418,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2432,14 +2435,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2455,7 +2458,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2465,14 +2468,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2481,14 +2484,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2498,14 +2501,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2514,14 +2517,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2538,7 +2541,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2554,7 +2557,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2571,7 +2574,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2587,7 +2590,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2604,7 +2607,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2620,7 +2623,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2637,7 +2640,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2653,7 +2656,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2670,7 +2673,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2686,7 +2689,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2703,7 +2706,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2719,7 +2722,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2736,7 +2739,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2752,7 +2755,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2762,14 +2765,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2778,14 +2781,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2795,14 +2798,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2811,14 +2814,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2828,14 +2831,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2851,7 +2854,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2861,14 +2864,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2877,14 +2880,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2894,14 +2897,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2910,14 +2913,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2927,14 +2930,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2943,14 +2946,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2960,14 +2963,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2976,14 +2979,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2993,14 +2996,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3009,14 +3012,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3026,14 +3029,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3049,7 +3052,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3059,14 +3062,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3075,14 +3078,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3092,14 +3095,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3108,14 +3111,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3125,14 +3128,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3141,14 +3144,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3158,14 +3161,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3174,14 +3177,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3191,14 +3194,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3207,14 +3210,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3224,14 +3227,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3240,14 +3243,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3257,14 +3260,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3273,14 +3276,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3290,14 +3293,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3306,14 +3309,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3323,14 +3326,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3339,14 +3342,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3356,14 +3359,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3372,14 +3375,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3389,14 +3392,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3405,14 +3408,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3422,14 +3425,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3445,7 +3448,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3455,14 +3458,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3471,14 +3474,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3488,14 +3491,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3504,14 +3507,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3521,14 +3524,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3537,14 +3540,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3554,14 +3557,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3570,14 +3573,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3587,14 +3590,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3603,31 +3606,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3636,31 +3639,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3669,14 +3672,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3686,14 +3689,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3702,14 +3705,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3719,14 +3722,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3735,14 +3738,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3752,14 +3755,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3768,14 +3771,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3785,14 +3788,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3801,14 +3804,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3818,14 +3821,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3834,14 +3837,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3851,14 +3854,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3867,14 +3870,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3884,14 +3887,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3907,24 +3910,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3933,31 +3936,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3966,14 +3969,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3983,14 +3986,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3999,14 +4002,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4016,14 +4019,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4032,14 +4035,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4049,14 +4052,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4065,14 +4068,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4082,14 +4085,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4105,7 +4108,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4115,14 +4118,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4138,7 +4141,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4148,14 +4151,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4164,14 +4167,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4181,14 +4184,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4197,14 +4200,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4214,14 +4217,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4237,7 +4240,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4247,14 +4250,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4270,7 +4273,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4280,14 +4283,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4296,14 +4299,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4313,14 +4316,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>57</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4336,7 +4339,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4346,14 +4349,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4362,14 +4365,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4379,14 +4382,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4395,31 +4398,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4428,31 +4431,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4461,14 +4464,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4478,14 +4481,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>105</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4501,7 +4504,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4511,14 +4514,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4527,14 +4530,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4544,14 +4547,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4567,7 +4570,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4577,14 +4580,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4600,7 +4603,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4610,14 +4613,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>256</v>
+        <v>84</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4626,14 +4629,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4643,14 +4646,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4659,14 +4662,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4676,14 +4679,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4692,14 +4695,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4709,14 +4712,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>66</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4732,7 +4735,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4742,14 +4745,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>69</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4758,14 +4761,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4775,14 +4778,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4791,14 +4794,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4808,14 +4811,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4824,14 +4827,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4841,14 +4844,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4857,14 +4860,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4874,14 +4877,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>132</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4890,14 +4893,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4907,14 +4910,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>43</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4930,7 +4933,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4940,14 +4943,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4956,14 +4959,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4973,14 +4976,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4989,14 +4992,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5006,14 +5009,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5022,14 +5025,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5039,14 +5042,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>101</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5062,7 +5065,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5072,14 +5075,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5088,14 +5091,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5105,14 +5108,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>183</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5121,14 +5124,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5138,14 +5141,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5154,14 +5157,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5171,14 +5174,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>232</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5187,14 +5190,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5204,14 +5207,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5220,14 +5223,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5237,14 +5240,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>129</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5260,7 +5263,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5270,14 +5273,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>304</v>
+        <v>88</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>305</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5286,14 +5289,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5303,14 +5306,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>129</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5319,14 +5322,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5336,14 +5339,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>158</v>
+        <v>308</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5359,7 +5362,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>310</v>
+        <v>73</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5369,14 +5372,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5385,14 +5388,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>21</v>
+        <v>311</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5402,14 +5405,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5425,7 +5428,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5435,14 +5438,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>313</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5451,14 +5454,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5468,14 +5471,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5484,14 +5487,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5501,14 +5504,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>317</v>
+        <v>189</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5517,31 +5520,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>32</v>
+        <v>318</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5550,31 +5553,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>21</v>
+        <v>321</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>197</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5590,24 +5593,24 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5616,31 +5619,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>327</v>
+        <v>20</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>32</v>
+        <v>325</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5649,31 +5652,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>139</v>
+        <v>328</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5689,24 +5692,24 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>286</v>
+        <v>84</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>287</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5722,24 +5725,24 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>332</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5748,31 +5751,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>335</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>84</v>
+        <v>333</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5781,31 +5784,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>337</v>
+        <v>43</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5814,31 +5817,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>70</v>
+        <v>338</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5847,31 +5850,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5887,24 +5890,24 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5920,24 +5923,24 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5946,31 +5949,31 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>202</v>
+        <v>347</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5979,31 +5982,31 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>346</v>
+        <v>203</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>64</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6019,24 +6022,24 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>339</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6052,24 +6055,24 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>353</v>
+        <v>43</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>155</v>
+        <v>339</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6078,31 +6081,31 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>128</v>
+        <v>354</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>338</v>
+        <v>156</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6118,59 +6121,92 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>356</v>
+        <v>129</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
+        <v>340</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>356</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>357</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>44</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
         <v>358</v>
       </c>
-      <c t="s" r="Q140" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="141" ht="25.5" customHeight="1">
-      <c r="P141" s="13">
-        <v>7116.8100000000004</v>
-      </c>
-      <c r="Q141" s="13"/>
-    </row>
-    <row r="142" ht="16.5" customHeight="1">
-      <c t="s" r="A142" s="14">
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
         <v>359</v>
       </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c t="s" r="G142" s="15">
+      <c t="s" r="Q141" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>7224.8100000000004</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
         <v>360</v>
       </c>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="16"/>
-      <c t="s" r="K142" s="17">
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
         <v>361</v>
       </c>
-      <c r="L142" s="17"/>
-      <c r="M142" s="17"/>
-      <c r="N142" s="17"/>
-      <c r="O142" s="17"/>
-      <c r="P142" s="17"/>
-      <c r="Q142" s="17"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>362</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="682">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6849,10 +6885,15 @@
     <mergeCell ref="H140:K140"/>
     <mergeCell ref="L140:M140"/>
     <mergeCell ref="N140:O140"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="K142:Q142"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -446,261 +446,261 @@
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
+    <t>75.2400</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:12</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
+    <t>ESTOHALT 40MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>11.7600</t>
+  </si>
+  <si>
+    <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG 3 AMP I.M</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>31.5000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FORTUM 1 GM VIAL.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>126.7200</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>IROSPECT 20 PIECES</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>KEFENTECH 30MG 7 PLASTER SHEET.</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>KETOPREK 75 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>LUBRISTIRA 15ML EYE DROPS</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>5.9400</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
     <t>37.6200</t>
   </si>
   <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>3:12</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>23.0400</t>
-  </si>
-  <si>
-    <t>ESTOHALT 40MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>11.7600</t>
-  </si>
-  <si>
-    <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG 3 AMP I.M</t>
-  </si>
-  <si>
-    <t>31.50</t>
-  </si>
-  <si>
-    <t>31.5000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FORTUM 1 GM VIAL.</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>106.0000</t>
-  </si>
-  <si>
-    <t>FUNGICAN 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>IROSPECT 20 PIECES</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>KEFENTECH 30MG 7 PLASTER SHEET.</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>KETOPREK 75 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>LUBRISTIRA 15ML EYE DROPS</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>LUCIDRIL 500MG 20 F.C TAB</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>5.9400</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
     <t>NEUROVIT 6 I.M. AMPS</t>
   </si>
   <si>
@@ -1091,7 +1091,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 10:56 PM</t>
+    <t>Thursday, 12 June, 2025 10:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3118,7 +3118,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3135,7 +3135,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3547,7 +3547,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3557,14 +3557,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3590,11 +3590,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>37</v>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3656,11 +3656,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3689,11 +3689,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>37</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3722,11 +3722,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>79</v>
@@ -3771,14 +3771,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3788,11 +3788,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>71</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3854,11 +3854,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3887,11 +3887,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>37</v>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3920,11 +3920,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3953,11 +3953,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3986,11 +3986,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>37</v>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4019,11 +4019,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>37</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4085,11 +4085,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>79</v>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>37</v>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5603,11 +5603,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>20</v>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
@@ -6176,7 +6176,7 @@
     </row>
     <row r="142" ht="25.5" customHeight="1">
       <c r="P142" s="13">
-        <v>7224.8100000000004</v>
+        <v>7325.79</v>
       </c>
       <c r="Q142" s="13"/>
     </row>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -461,6 +461,9 @@
     <t>23.0400</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
     <t>ESTOHALT 40MG 14 CAPS.</t>
   </si>
   <si>
@@ -563,6 +566,9 @@
     <t>126.7200</t>
   </si>
   <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
@@ -1091,7 +1097,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 10:57 PM</t>
+    <t>Thursday, 12 June, 2025 11:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3194,14 +3200,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3210,14 +3216,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3227,14 +3233,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3243,14 +3249,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3260,14 +3266,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3276,14 +3282,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3293,14 +3299,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3309,7 +3315,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3326,11 +3332,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3342,14 +3348,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3359,14 +3365,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3375,14 +3381,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3392,14 +3398,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3408,14 +3414,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3425,11 +3431,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3441,14 +3447,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3458,11 +3464,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3491,14 +3497,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3507,14 +3513,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3524,14 +3530,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3540,14 +3546,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3557,14 +3563,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3573,14 +3579,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3590,14 +3596,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3606,14 +3612,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3623,14 +3629,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3639,31 +3645,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3672,7 +3678,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3689,11 +3695,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>37</v>
@@ -3705,7 +3711,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3718,15 +3724,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3738,14 +3744,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3755,14 +3761,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3771,14 +3777,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3788,14 +3794,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3804,14 +3810,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3825,10 +3831,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3837,14 +3843,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3854,14 +3860,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3870,14 +3876,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3887,14 +3893,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3903,14 +3909,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3920,11 +3926,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3936,31 +3942,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3969,14 +3975,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3986,14 +3992,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4002,31 +4008,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4035,14 +4041,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4052,14 +4058,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4068,14 +4074,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4085,14 +4091,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4101,14 +4107,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4118,14 +4124,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4134,14 +4140,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4151,14 +4157,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4167,14 +4173,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4184,14 +4190,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4200,7 +4206,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4217,14 +4223,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4233,14 +4239,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4250,14 +4256,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>211</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4266,14 +4272,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4283,11 +4289,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4306,7 +4312,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4316,11 +4322,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4332,7 +4338,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4353,7 +4359,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4365,14 +4371,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4382,11 +4388,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4398,7 +4404,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4415,14 +4421,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>60</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4431,31 +4437,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4464,14 +4470,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4481,14 +4487,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4497,31 +4503,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4530,14 +4536,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4547,11 +4553,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>37</v>
@@ -4563,14 +4569,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4580,14 +4586,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>253</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4596,14 +4602,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4613,14 +4619,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4646,11 +4652,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>95</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>37</v>
@@ -4662,14 +4668,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4679,11 +4685,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>84</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4695,14 +4701,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>263</v>
+        <v>31</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4712,11 +4718,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>37</v>
@@ -4728,7 +4734,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4745,14 +4751,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>69</v>
+        <v>262</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4761,14 +4767,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4778,14 +4784,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4794,14 +4800,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4811,11 +4817,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>264</v>
+        <v>69</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>37</v>
@@ -4827,14 +4833,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4844,14 +4850,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4860,14 +4866,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>275</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4877,11 +4883,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>37</v>
@@ -4893,14 +4899,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4910,14 +4916,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4926,14 +4932,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4943,14 +4949,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>46</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4959,14 +4965,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4976,14 +4982,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4992,14 +4998,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5009,14 +5015,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>284</v>
+        <v>45</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>285</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5025,7 +5031,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5042,14 +5048,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5058,14 +5064,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5075,14 +5081,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>104</v>
+        <v>286</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5091,7 +5097,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5108,11 +5114,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5124,14 +5130,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5141,11 +5147,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>293</v>
+        <v>104</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5157,14 +5163,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5174,14 +5180,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>183</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5190,14 +5196,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5207,14 +5213,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5223,7 +5229,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5240,14 +5246,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5256,14 +5262,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5273,14 +5279,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>130</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5289,14 +5295,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5306,11 +5312,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5322,7 +5328,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5339,14 +5345,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>308</v>
+        <v>88</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5355,14 +5361,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5372,11 +5378,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>159</v>
+        <v>307</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>160</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5388,14 +5394,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5405,14 +5411,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>238</v>
+        <v>310</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5421,14 +5427,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5438,11 +5444,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5454,14 +5460,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>313</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5471,14 +5477,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5487,14 +5493,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5504,11 +5510,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5520,14 +5526,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5537,14 +5543,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5553,28 +5559,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>321</v>
+        <v>43</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5586,31 +5592,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>196</v>
+        <v>320</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>197</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5619,14 +5625,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5636,11 +5642,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>325</v>
+        <v>35</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>20</v>
@@ -5652,14 +5658,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5669,11 +5675,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>322</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>20</v>
@@ -5685,14 +5691,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5702,11 +5708,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>84</v>
+        <v>327</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>85</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>20</v>
@@ -5718,14 +5724,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>129</v>
+        <v>330</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5735,11 +5741,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>287</v>
+        <v>35</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>20</v>
@@ -5758,7 +5764,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5768,14 +5774,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>332</v>
+        <v>84</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>248</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>333</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5784,14 +5790,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5801,14 +5807,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5817,14 +5823,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>338</v>
+        <v>43</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5834,14 +5840,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>20</v>
+        <v>335</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5850,14 +5856,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5867,14 +5873,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5883,14 +5889,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5900,11 +5906,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>20</v>
@@ -5916,14 +5922,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5933,11 +5939,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>20</v>
@@ -5966,11 +5972,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>20</v>
@@ -5982,14 +5988,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5999,11 +6005,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>202</v>
+        <v>344</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>20</v>
@@ -6015,14 +6021,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6032,14 +6038,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>67</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6048,14 +6054,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6065,11 +6071,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>339</v>
+        <v>204</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>20</v>
@@ -6088,7 +6094,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6098,14 +6104,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>156</v>
+        <v>349</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>336</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6114,14 +6120,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6131,11 +6137,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>20</v>
@@ -6147,14 +6153,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6164,49 +6170,115 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>358</v>
+        <v>157</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
+        <v>338</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>357</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>129</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>44</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>341</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>342</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>358</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
         <v>359</v>
       </c>
-      <c t="s" r="Q141" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" ht="25.5" customHeight="1">
-      <c r="P142" s="13">
-        <v>7325.79</v>
-      </c>
-      <c r="Q142" s="13"/>
-    </row>
-    <row r="143" ht="16.5" customHeight="1">
-      <c t="s" r="A143" s="14">
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>44</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
         <v>360</v>
       </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c t="s" r="G143" s="15">
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
         <v>361</v>
       </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="16"/>
-      <c t="s" r="K143" s="17">
+      <c t="s" r="Q143" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="P144" s="13">
+        <v>7479.79</v>
+      </c>
+      <c r="Q144" s="13"/>
+    </row>
+    <row r="145" ht="16.5" customHeight="1">
+      <c t="s" r="A145" s="14">
         <v>362</v>
       </c>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="17"/>
-      <c r="Q143" s="17"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c t="s" r="G145" s="15">
+        <v>363</v>
+      </c>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="16"/>
+      <c t="s" r="K145" s="17">
+        <v>364</v>
+      </c>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="17"/>
+      <c r="Q145" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="687">
+  <mergeCells count="697">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6890,10 +6962,20 @@
     <mergeCell ref="H141:K141"/>
     <mergeCell ref="L141:M141"/>
     <mergeCell ref="N141:O141"/>
-    <mergeCell ref="P142:Q142"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="K143:Q143"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="P144:Q144"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="G145:I145"/>
+    <mergeCell ref="K145:Q145"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -1097,7 +1097,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 11:00 PM</t>
+    <t>Thursday, 12 June, 2025 11:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-12_00-00.xlsx
+++ b/DaySale_2025-06-12_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>72.2700</t>
   </si>
   <si>
+    <t>BLADOGRA XR 25 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>84.1500</t>
+  </si>
+  <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
@@ -578,6 +587,15 @@
     <t>24.7500</t>
   </si>
   <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
     <t>HISTAZINE-1 10MG 20 TAB</t>
   </si>
   <si>
@@ -1097,7 +1115,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Thursday, 12 June, 2025 11:01 PM</t>
+    <t>Thursday, 12 June, 2025 11:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2068,13 +2086,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -2085,7 +2103,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2107,7 +2125,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -2134,7 +2152,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2151,7 +2169,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2167,7 +2185,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2184,7 +2202,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2200,13 +2218,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2233,13 +2251,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2250,7 +2268,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2259,14 +2277,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2276,14 +2294,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2292,14 +2310,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2309,14 +2327,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2325,14 +2343,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2346,10 +2364,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>82</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>37</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2365,13 +2383,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2382,7 +2400,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2398,24 +2416,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2424,14 +2442,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2448,7 +2466,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2474,14 +2492,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>96</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2497,7 +2515,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2507,14 +2525,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2523,14 +2541,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2540,14 +2558,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2556,14 +2574,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2580,7 +2598,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2596,7 +2614,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2613,7 +2631,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2629,7 +2647,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2662,7 +2680,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2695,7 +2713,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2728,7 +2746,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2761,7 +2779,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2778,7 +2796,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2794,7 +2812,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2804,14 +2822,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2820,14 +2838,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2837,14 +2855,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2853,14 +2871,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2870,14 +2888,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2886,14 +2904,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2903,11 +2921,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2936,14 +2954,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2952,14 +2970,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2969,14 +2987,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2985,14 +3003,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3002,11 +3020,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>37</v>
@@ -3018,14 +3036,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3035,14 +3053,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3051,14 +3069,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3068,14 +3086,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3084,14 +3102,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3101,14 +3119,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3117,14 +3135,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3134,14 +3152,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3150,14 +3168,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3167,11 +3185,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3183,14 +3201,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3200,14 +3218,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3216,7 +3234,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3233,14 +3251,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3256,7 +3274,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3266,14 +3284,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3282,14 +3300,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3299,14 +3317,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3322,7 +3340,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3339,7 +3357,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3388,7 +3406,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3405,7 +3423,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3421,7 +3439,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3438,7 +3456,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3454,7 +3472,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3487,7 +3505,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3497,11 +3515,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3513,7 +3531,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3530,14 +3548,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3553,7 +3571,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3563,14 +3581,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3579,14 +3597,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3603,7 +3621,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3619,7 +3637,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3629,14 +3647,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3645,14 +3663,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3662,14 +3680,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3685,7 +3703,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3699,7 +3717,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>37</v>
@@ -3711,28 +3729,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3744,7 +3762,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3761,11 +3779,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>37</v>
@@ -3790,7 +3808,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3817,7 +3835,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3827,14 +3845,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3843,14 +3861,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3867,7 +3885,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3883,7 +3901,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3900,7 +3918,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3916,7 +3934,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3926,14 +3944,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3942,14 +3960,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3959,14 +3977,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3982,7 +4000,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3992,11 +4010,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -4008,31 +4026,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4041,14 +4059,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4058,14 +4076,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4081,13 +4099,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -4098,7 +4116,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4114,7 +4132,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4124,14 +4142,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>48</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4140,14 +4158,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4157,14 +4175,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4173,14 +4191,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4190,14 +4208,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4206,14 +4224,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4223,14 +4241,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4239,14 +4257,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4256,14 +4274,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4272,7 +4290,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4289,14 +4307,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4305,14 +4323,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4322,14 +4340,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4338,14 +4356,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4355,11 +4373,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4371,14 +4389,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4388,11 +4406,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4404,7 +4422,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4421,11 +4439,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4437,14 +4455,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4454,11 +4472,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4470,7 +4488,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4487,14 +4505,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>63</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4503,31 +4521,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4536,14 +4554,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4553,14 +4571,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4569,31 +4587,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4602,14 +4620,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4619,11 +4637,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>37</v>
@@ -4635,14 +4653,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4652,14 +4670,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4668,14 +4686,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4685,14 +4703,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>85</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4701,7 +4719,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4718,11 +4736,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>259</v>
+        <v>98</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>37</v>
@@ -4734,14 +4752,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4751,11 +4769,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>262</v>
+        <v>87</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>263</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4774,7 +4792,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4784,11 +4802,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>37</v>
@@ -4800,7 +4818,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4817,14 +4835,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>69</v>
+        <v>268</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4833,14 +4851,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4850,14 +4868,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4866,14 +4884,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4883,11 +4901,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>266</v>
+        <v>72</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>37</v>
@@ -4899,14 +4917,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4916,14 +4934,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4932,14 +4950,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>277</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4949,7 +4967,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4972,7 +4990,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
      